--- a/Summary Statistics for Schools in Scotland/2023.xlsx
+++ b/Summary Statistics for Schools in Scotland/2023.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="27"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="21"/>
   </bookViews>
   <sheets>
     <sheet name="1" sheetId="1" state="visible" r:id="rId2"/>
@@ -85,7 +85,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="262">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="512" uniqueCount="260">
   <si>
     <t xml:space="preserve">Table 1: Publicly funded schools in Scotland</t>
   </si>
@@ -688,12 +688,12 @@
     <t xml:space="preserve">Table 21: Pupils with additional support needs (ASN) and English as an additional language by sex</t>
   </si>
   <si>
-    <t xml:space="preserve">Additional Support Need</t>
-  </si>
-  <si>
     <t xml:space="preserve">English as an Additional Language</t>
   </si>
   <si>
+    <t xml:space="preserve">Additional Support Needs (ASN)</t>
+  </si>
+  <si>
     <t xml:space="preserve">CSP (Co-ordinated Support Plan)</t>
   </si>
   <si>
@@ -706,13 +706,7 @@
     <t xml:space="preserve">Assessed/Declared Disabled</t>
   </si>
   <si>
-    <t xml:space="preserve">Other [Note 2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All pupils with ASN [Note 3]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">All pupils with ASN (excluding Other type)[Note 3]</t>
+    <t xml:space="preserve">Other(2)</t>
   </si>
   <si>
     <t xml:space="preserve">All pupils with ASN(3)</t>
@@ -1626,7 +1620,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="219">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1779,7 +1773,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1787,7 +1781,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="15" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1899,11 +1893,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1927,7 +1921,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="0" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1939,7 +1933,7 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="0" fillId="2" borderId="2" xfId="23" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2195,52 +2189,68 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="4" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="168" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="22" fillId="0" borderId="5" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="4" fillId="0" borderId="0" xfId="21" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="26" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2569,7 +2579,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3324,11 +3334,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="3628886"/>
-        <c:axId val="47325309"/>
+        <c:axId val="4417928"/>
+        <c:axId val="4536342"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="3628886"/>
+        <c:axId val="4417928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3360,7 +3370,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="47325309"/>
+        <c:crossAx val="4536342"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3368,7 +3378,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="47325309"/>
+        <c:axId val="4536342"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3404,8 +3414,8 @@
             <c:manualLayout>
               <c:xMode val="edge"/>
               <c:yMode val="edge"/>
-              <c:x val="0.00560079443892751"/>
-              <c:y val="0.378716606017573"/>
+              <c:x val="0.00560101692222134"/>
+              <c:y val="0.378572696609267"/>
             </c:manualLayout>
           </c:layout>
           <c:overlay val="0"/>
@@ -3439,7 +3449,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="3628886"/>
+        <c:crossAx val="4417928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1000"/>
@@ -3489,7 +3499,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -3846,11 +3856,11 @@
           </c:spPr>
         </c:hiLowLines>
         <c:marker val="0"/>
-        <c:axId val="98085850"/>
-        <c:axId val="48303010"/>
+        <c:axId val="90422457"/>
+        <c:axId val="3431619"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="98085850"/>
+        <c:axId val="90422457"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3882,7 +3892,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48303010"/>
+        <c:crossAx val="3431619"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -3890,7 +3900,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="48303010"/>
+        <c:axId val="3431619"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3963,7 +3973,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="98085850"/>
+        <c:crossAx val="90422457"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -4023,9 +4033,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>11</xdr:col>
-      <xdr:colOff>441360</xdr:colOff>
+      <xdr:colOff>441000</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>155520</xdr:rowOff>
+      <xdr:rowOff>155160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4034,7 +4044,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="268560" y="814680"/>
-        <a:ext cx="9062640" cy="4055760"/>
+        <a:ext cx="9062280" cy="4055400"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -4058,9 +4068,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>56880</xdr:colOff>
+      <xdr:colOff>56520</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>75960</xdr:rowOff>
+      <xdr:rowOff>75600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -4069,7 +4079,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="136440" y="276480"/>
-        <a:ext cx="5914800" cy="2856960"/>
+        <a:ext cx="5916960" cy="2856600"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -7830,453 +7840,405 @@
   <dimension ref="A1:L28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E10" activeCellId="0" sqref="E10"/>
+      <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="107" width="42.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="107" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="142" width="42.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="142" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="143" t="s">
         <v>181</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="109" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="B3" s="37" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147" t="s">
         <v>86</v>
       </c>
-      <c r="C3" s="37" t="s">
+      <c r="C3" s="147" t="s">
         <v>87</v>
       </c>
-      <c r="D3" s="37" t="s">
+      <c r="D3" s="147" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="37" t="s">
         <v>182</v>
       </c>
-      <c r="B4" s="143" t="n">
+      <c r="B4" s="148" t="n">
         <v>345698</v>
       </c>
-      <c r="C4" s="143" t="n">
+      <c r="C4" s="148" t="n">
         <v>359830</v>
       </c>
-      <c r="D4" s="143" t="n">
+      <c r="D4" s="148" t="n">
         <v>705528</v>
       </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="B5" s="37" t="n">
-        <v>252784</v>
-      </c>
-      <c r="C5" s="37" t="n">
-        <v>262541</v>
-      </c>
-      <c r="D5" s="37" t="n">
-        <v>515325</v>
-      </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
+      <c r="A5" s="149" t="s">
+        <v>96</v>
+      </c>
+      <c r="B5" s="150"/>
+      <c r="C5" s="150"/>
+      <c r="D5" s="150"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="37" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="144" t="n">
-        <v>22408</v>
-      </c>
-      <c r="C6" s="144" t="n">
-        <v>23748</v>
-      </c>
-      <c r="D6" s="144" t="n">
-        <v>46156</v>
-      </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
+        <v>97</v>
+      </c>
+      <c r="B6" s="148" t="n">
+        <v>252784</v>
+      </c>
+      <c r="C6" s="148" t="n">
+        <v>262541</v>
+      </c>
+      <c r="D6" s="148" t="n">
+        <v>515325</v>
+      </c>
+      <c r="E6" s="151"/>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="37" t="s">
-        <v>184</v>
-      </c>
-      <c r="B7" s="144" t="n">
-        <v>718</v>
-      </c>
-      <c r="C7" s="144" t="n">
-        <v>759</v>
-      </c>
-      <c r="D7" s="144" t="n">
-        <v>1477</v>
-      </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-      <c r="K7" s="145"/>
-      <c r="L7" s="145"/>
+        <v>183</v>
+      </c>
+      <c r="B7" s="148" t="n">
+        <v>22408</v>
+      </c>
+      <c r="C7" s="148" t="n">
+        <v>23748</v>
+      </c>
+      <c r="D7" s="148" t="n">
+        <v>46156</v>
+      </c>
+      <c r="E7" s="151"/>
+      <c r="F7" s="152"/>
+      <c r="G7" s="153"/>
+      <c r="H7" s="153"/>
+      <c r="I7" s="153"/>
+      <c r="J7" s="153"/>
+      <c r="K7" s="153"/>
+      <c r="L7" s="153"/>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B8" s="144" t="n">
-        <v>8382</v>
-      </c>
-      <c r="C8" s="144" t="n">
-        <v>8787</v>
-      </c>
-      <c r="D8" s="144" t="n">
-        <v>17169</v>
-      </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="145"/>
-      <c r="I8" s="145"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
+        <v>184</v>
+      </c>
+      <c r="B8" s="148" t="n">
+        <v>718</v>
+      </c>
+      <c r="C8" s="148" t="n">
+        <v>759</v>
+      </c>
+      <c r="D8" s="148" t="n">
+        <v>1477</v>
+      </c>
+      <c r="E8" s="151"/>
+      <c r="F8" s="152"/>
+      <c r="G8" s="153"/>
+      <c r="H8" s="153"/>
+      <c r="I8" s="153"/>
+      <c r="J8" s="153"/>
+      <c r="K8" s="153"/>
+      <c r="L8" s="153"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="37" t="s">
-        <v>186</v>
-      </c>
-      <c r="B9" s="144" t="n">
-        <v>703</v>
-      </c>
-      <c r="C9" s="144" t="n">
-        <v>753</v>
-      </c>
-      <c r="D9" s="144" t="n">
-        <v>1456</v>
-      </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="145"/>
-      <c r="I9" s="145"/>
-      <c r="J9" s="145"/>
-      <c r="K9" s="145"/>
-      <c r="L9" s="145"/>
+        <v>185</v>
+      </c>
+      <c r="B9" s="148" t="n">
+        <v>8382</v>
+      </c>
+      <c r="C9" s="148" t="n">
+        <v>8787</v>
+      </c>
+      <c r="D9" s="148" t="n">
+        <v>17169</v>
+      </c>
+      <c r="E9" s="151"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="153"/>
+      <c r="H9" s="153"/>
+      <c r="I9" s="153"/>
+      <c r="J9" s="153"/>
+      <c r="K9" s="153"/>
+      <c r="L9" s="153"/>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B10" s="144" t="n">
-        <v>12822</v>
-      </c>
-      <c r="C10" s="144" t="n">
-        <v>13455</v>
-      </c>
-      <c r="D10" s="144" t="n">
-        <v>26277</v>
-      </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
+        <v>186</v>
+      </c>
+      <c r="B10" s="148" t="n">
+        <v>703</v>
+      </c>
+      <c r="C10" s="148" t="n">
+        <v>753</v>
+      </c>
+      <c r="D10" s="148" t="n">
+        <v>1456</v>
+      </c>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A11" s="37" t="s">
-        <v>188</v>
-      </c>
-      <c r="B11" s="144" t="n">
-        <v>6470</v>
-      </c>
-      <c r="C11" s="144" t="n">
-        <v>6443</v>
-      </c>
-      <c r="D11" s="144" t="n">
-        <v>12913</v>
-      </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
+        <v>187</v>
+      </c>
+      <c r="B11" s="148" t="n">
+        <v>12822</v>
+      </c>
+      <c r="C11" s="148" t="n">
+        <v>13455</v>
+      </c>
+      <c r="D11" s="148" t="n">
+        <v>26277</v>
+      </c>
+      <c r="E11" s="151"/>
     </row>
     <row r="12" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A12" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="B12" s="144" t="n">
-        <v>4615</v>
-      </c>
-      <c r="C12" s="144" t="n">
-        <v>4895</v>
-      </c>
-      <c r="D12" s="144" t="n">
-        <v>9510</v>
-      </c>
-      <c r="E12" s="0"/>
-      <c r="F12" s="0"/>
-      <c r="G12" s="0"/>
+        <v>188</v>
+      </c>
+      <c r="B12" s="148" t="n">
+        <v>6470</v>
+      </c>
+      <c r="C12" s="148" t="n">
+        <v>6443</v>
+      </c>
+      <c r="D12" s="148" t="n">
+        <v>12913</v>
+      </c>
+      <c r="E12" s="151"/>
     </row>
     <row r="13" customFormat="false" ht="27" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A13" s="37" t="s">
-        <v>190</v>
-      </c>
-      <c r="B13" s="144" t="n">
-        <v>7609</v>
-      </c>
-      <c r="C13" s="144" t="n">
-        <v>7803</v>
-      </c>
-      <c r="D13" s="144" t="n">
-        <v>15412</v>
-      </c>
-      <c r="E13" s="0"/>
-      <c r="F13" s="0"/>
-      <c r="G13" s="0"/>
+        <v>189</v>
+      </c>
+      <c r="B13" s="148" t="n">
+        <v>4615</v>
+      </c>
+      <c r="C13" s="148" t="n">
+        <v>4895</v>
+      </c>
+      <c r="D13" s="148" t="n">
+        <v>9510</v>
+      </c>
+      <c r="E13" s="151"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="37" t="s">
-        <v>191</v>
-      </c>
-      <c r="B14" s="144" t="n">
-        <v>754</v>
-      </c>
-      <c r="C14" s="144" t="n">
-        <v>762</v>
-      </c>
-      <c r="D14" s="144" t="n">
-        <v>1516</v>
-      </c>
-      <c r="E14" s="0"/>
-      <c r="F14" s="0"/>
-      <c r="G14" s="0"/>
+        <v>190</v>
+      </c>
+      <c r="B14" s="148" t="n">
+        <v>7609</v>
+      </c>
+      <c r="C14" s="148" t="n">
+        <v>7803</v>
+      </c>
+      <c r="D14" s="148" t="n">
+        <v>15412</v>
+      </c>
+      <c r="E14" s="151"/>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="B15" s="144" t="n">
-        <v>2723</v>
-      </c>
-      <c r="C15" s="144" t="n">
-        <v>2777</v>
-      </c>
-      <c r="D15" s="144" t="n">
-        <v>5500</v>
-      </c>
-      <c r="E15" s="0"/>
-      <c r="F15" s="0"/>
-      <c r="G15" s="0"/>
+        <v>191</v>
+      </c>
+      <c r="B15" s="148" t="n">
+        <v>754</v>
+      </c>
+      <c r="C15" s="148" t="n">
+        <v>762</v>
+      </c>
+      <c r="D15" s="148" t="n">
+        <v>1516</v>
+      </c>
+      <c r="E15" s="151"/>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="37" t="s">
-        <v>193</v>
-      </c>
-      <c r="B16" s="144" t="n">
-        <v>2823</v>
-      </c>
-      <c r="C16" s="144" t="n">
-        <v>2966</v>
-      </c>
-      <c r="D16" s="144" t="n">
-        <v>5789</v>
-      </c>
-      <c r="E16" s="0"/>
-      <c r="F16" s="0"/>
-      <c r="G16" s="0"/>
+        <v>192</v>
+      </c>
+      <c r="B16" s="148" t="n">
+        <v>2723</v>
+      </c>
+      <c r="C16" s="148" t="n">
+        <v>2777</v>
+      </c>
+      <c r="D16" s="148" t="n">
+        <v>5500</v>
+      </c>
+      <c r="E16" s="151"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="37" t="s">
-        <v>194</v>
-      </c>
-      <c r="B17" s="144" t="n">
-        <v>514</v>
-      </c>
-      <c r="C17" s="144" t="n">
-        <v>504</v>
-      </c>
-      <c r="D17" s="144" t="n">
-        <v>1018</v>
-      </c>
-      <c r="E17" s="0"/>
-      <c r="F17" s="0"/>
-      <c r="G17" s="0"/>
+        <v>193</v>
+      </c>
+      <c r="B17" s="148" t="n">
+        <v>2823</v>
+      </c>
+      <c r="C17" s="148" t="n">
+        <v>2966</v>
+      </c>
+      <c r="D17" s="148" t="n">
+        <v>5789</v>
+      </c>
+      <c r="E17" s="151"/>
     </row>
     <row r="18" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="B18" s="144" t="n">
-        <v>314</v>
-      </c>
-      <c r="C18" s="144" t="n">
-        <v>327</v>
-      </c>
-      <c r="D18" s="144" t="n">
-        <v>641</v>
-      </c>
-      <c r="E18" s="0"/>
-      <c r="F18" s="0"/>
-      <c r="G18" s="0"/>
+        <v>194</v>
+      </c>
+      <c r="B18" s="148" t="n">
+        <v>514</v>
+      </c>
+      <c r="C18" s="148" t="n">
+        <v>504</v>
+      </c>
+      <c r="D18" s="148" t="n">
+        <v>1018</v>
+      </c>
+      <c r="E18" s="151"/>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="37" t="s">
-        <v>196</v>
-      </c>
-      <c r="B19" s="144" t="n">
-        <v>4203</v>
-      </c>
-      <c r="C19" s="144" t="n">
-        <v>4143</v>
-      </c>
-      <c r="D19" s="144" t="n">
-        <v>8346</v>
-      </c>
-      <c r="E19" s="0"/>
-      <c r="F19" s="0"/>
-      <c r="G19" s="0"/>
+        <v>195</v>
+      </c>
+      <c r="B19" s="148" t="n">
+        <v>314</v>
+      </c>
+      <c r="C19" s="148" t="n">
+        <v>327</v>
+      </c>
+      <c r="D19" s="148" t="n">
+        <v>641</v>
+      </c>
+      <c r="E19" s="151"/>
     </row>
     <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A20" s="37" t="s">
-        <v>197</v>
-      </c>
-      <c r="B20" s="144" t="n">
-        <v>4013</v>
-      </c>
-      <c r="C20" s="144" t="n">
-        <v>4116</v>
-      </c>
-      <c r="D20" s="144" t="n">
-        <v>8129</v>
-      </c>
-      <c r="E20" s="0"/>
-      <c r="F20" s="0"/>
-      <c r="G20" s="0"/>
+        <v>196</v>
+      </c>
+      <c r="B20" s="148" t="n">
+        <v>4203</v>
+      </c>
+      <c r="C20" s="148" t="n">
+        <v>4143</v>
+      </c>
+      <c r="D20" s="148" t="n">
+        <v>8346</v>
+      </c>
+      <c r="E20" s="151"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="B21" s="144" t="n">
-        <v>2281</v>
-      </c>
-      <c r="C21" s="144" t="n">
-        <v>2506</v>
-      </c>
-      <c r="D21" s="144" t="n">
-        <v>4787</v>
-      </c>
-      <c r="E21" s="0"/>
-      <c r="F21" s="0"/>
-      <c r="G21" s="0"/>
+        <v>197</v>
+      </c>
+      <c r="B21" s="148" t="n">
+        <v>4013</v>
+      </c>
+      <c r="C21" s="148" t="n">
+        <v>4116</v>
+      </c>
+      <c r="D21" s="148" t="n">
+        <v>8129</v>
+      </c>
+      <c r="E21" s="151"/>
     </row>
     <row r="22" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A22" s="37" t="s">
-        <v>143</v>
-      </c>
-      <c r="B22" s="144" t="n">
-        <v>2968</v>
-      </c>
-      <c r="C22" s="144" t="n">
-        <v>3174</v>
-      </c>
-      <c r="D22" s="144" t="n">
-        <v>6142</v>
-      </c>
-      <c r="E22" s="0"/>
-      <c r="F22" s="0"/>
-      <c r="G22" s="0"/>
+        <v>198</v>
+      </c>
+      <c r="B22" s="148" t="n">
+        <v>2281</v>
+      </c>
+      <c r="C22" s="148" t="n">
+        <v>2506</v>
+      </c>
+      <c r="D22" s="148" t="n">
+        <v>4787</v>
+      </c>
+      <c r="E22" s="151"/>
     </row>
     <row r="23" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A23" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="B23" s="144" t="n">
-        <v>6926</v>
-      </c>
-      <c r="C23" s="144" t="n">
-        <v>7489</v>
-      </c>
-      <c r="D23" s="144" t="n">
-        <v>14415</v>
-      </c>
-      <c r="E23" s="0"/>
-      <c r="F23" s="0"/>
-      <c r="G23" s="0"/>
+        <v>143</v>
+      </c>
+      <c r="B23" s="148" t="n">
+        <v>2968</v>
+      </c>
+      <c r="C23" s="148" t="n">
+        <v>3174</v>
+      </c>
+      <c r="D23" s="148" t="n">
+        <v>6142</v>
+      </c>
+      <c r="E23" s="151"/>
     </row>
     <row r="24" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A24" s="37" t="s">
+        <v>101</v>
+      </c>
+      <c r="B24" s="148" t="n">
+        <v>6926</v>
+      </c>
+      <c r="C24" s="148" t="n">
+        <v>7489</v>
+      </c>
+      <c r="D24" s="148" t="n">
+        <v>14415</v>
+      </c>
+      <c r="E24" s="151"/>
+    </row>
+    <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="37" t="s">
         <v>102</v>
       </c>
-      <c r="B24" s="144" t="n">
+      <c r="B25" s="148" t="n">
         <v>1668</v>
       </c>
-      <c r="C24" s="144" t="n">
+      <c r="C25" s="148" t="n">
         <v>1882</v>
       </c>
-      <c r="D24" s="144" t="n">
+      <c r="D25" s="148" t="n">
         <v>3550</v>
       </c>
-      <c r="E24" s="0"/>
-      <c r="F24" s="0"/>
-      <c r="G24" s="0"/>
-    </row>
-    <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="146" t="s">
-        <v>102</v>
-      </c>
-      <c r="B25" s="147" t="n">
-        <v>1689</v>
-      </c>
-      <c r="C25" s="147" t="n">
-        <v>1876</v>
-      </c>
-      <c r="D25" s="147" t="n">
-        <v>3565</v>
-      </c>
-      <c r="E25" s="148"/>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="149"/>
-      <c r="B26" s="149"/>
-      <c r="C26" s="149"/>
-      <c r="D26" s="149"/>
-      <c r="I26" s="148"/>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="149"/>
-      <c r="B27" s="149"/>
-      <c r="C27" s="149"/>
-      <c r="D27" s="149"/>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="149"/>
-      <c r="B28" s="149"/>
-      <c r="C28" s="149"/>
-      <c r="D28" s="149"/>
+      <c r="E25" s="151"/>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="154"/>
+      <c r="B26" s="154"/>
+      <c r="C26" s="154"/>
+      <c r="D26" s="154"/>
+      <c r="I26" s="151"/>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="154"/>
+      <c r="B27" s="154"/>
+      <c r="C27" s="154"/>
+      <c r="D27" s="154"/>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="154"/>
+      <c r="B28" s="154"/>
+      <c r="C28" s="154"/>
+      <c r="D28" s="154"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8296,240 +8258,212 @@
   </sheetPr>
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G10" activeCellId="0" sqref="G10"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F13" activeCellId="0" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.14453125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="107" width="42.43"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="107" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="142" width="42.43"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="2" style="142" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="14.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="143" t="s">
         <v>199</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="109" t="s">
+      <c r="B1" s="144"/>
+      <c r="C1" s="144"/>
+      <c r="D1" s="144"/>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="145" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="142"/>
-      <c r="C2" s="142"/>
-      <c r="D2" s="142"/>
+      <c r="B2" s="146"/>
+      <c r="C2" s="146"/>
+      <c r="D2" s="146"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="147"/>
+      <c r="B3" s="147" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" s="147" t="s">
+        <v>87</v>
+      </c>
+      <c r="D3" s="147" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="155" t="s">
+        <v>182</v>
+      </c>
+      <c r="B4" s="148" t="n">
+        <v>345698</v>
+      </c>
+      <c r="C4" s="148" t="n">
+        <v>359830</v>
+      </c>
+      <c r="D4" s="148" t="n">
+        <v>705528</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="155" t="s">
         <v>200</v>
       </c>
-      <c r="B3" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>87</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="0"/>
-      <c r="F3" s="0"/>
-      <c r="G3" s="0"/>
-    </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="37" t="s">
+      <c r="B5" s="148" t="n">
+        <v>27422</v>
+      </c>
+      <c r="C5" s="148" t="n">
+        <v>29840</v>
+      </c>
+      <c r="D5" s="148" t="n">
+        <v>57262</v>
+      </c>
+      <c r="E5" s="151"/>
+    </row>
+    <row r="6" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="149" t="s">
         <v>201</v>
       </c>
-      <c r="B4" s="144" t="n">
-        <v>27422</v>
-      </c>
-      <c r="C4" s="144" t="n">
-        <v>29840</v>
-      </c>
-      <c r="D4" s="144" t="n">
-        <v>57262</v>
-      </c>
-      <c r="E4" s="0"/>
-      <c r="F4" s="0"/>
-      <c r="G4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="37" t="s">
+      <c r="B6" s="156"/>
+      <c r="C6" s="156"/>
+      <c r="D6" s="156"/>
+      <c r="E6" s="151"/>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="157" t="s">
         <v>202</v>
       </c>
-      <c r="B5" s="9" t="n">
+      <c r="B7" s="148" t="n">
         <v>507</v>
       </c>
-      <c r="C5" s="9" t="n">
+      <c r="C7" s="148" t="n">
         <v>811</v>
       </c>
-      <c r="D5" s="9" t="n">
+      <c r="D7" s="148" t="n">
         <v>1318</v>
       </c>
-      <c r="E5" s="0"/>
-      <c r="F5" s="0"/>
-      <c r="G5" s="0"/>
-    </row>
-    <row r="6" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="37" t="s">
+      <c r="E7" s="151"/>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="157" t="s">
         <v>203</v>
       </c>
-      <c r="B6" s="9" t="n">
+      <c r="B8" s="148" t="n">
         <v>10918</v>
       </c>
-      <c r="C6" s="9" t="n">
+      <c r="C8" s="148" t="n">
         <v>22404</v>
       </c>
-      <c r="D6" s="9" t="n">
+      <c r="D8" s="148" t="n">
         <v>33322</v>
       </c>
-      <c r="E6" s="0"/>
-      <c r="F6" s="0"/>
-      <c r="G6" s="0"/>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="37" t="s">
+      <c r="E8" s="151"/>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="157" t="s">
         <v>204</v>
       </c>
-      <c r="B7" s="9" t="n">
+      <c r="B9" s="148" t="n">
         <v>19384</v>
       </c>
-      <c r="C7" s="9" t="n">
+      <c r="C9" s="148" t="n">
         <v>32632</v>
       </c>
-      <c r="D7" s="9" t="n">
+      <c r="D9" s="148" t="n">
         <v>52016</v>
       </c>
-      <c r="E7" s="0"/>
-      <c r="F7" s="0"/>
-      <c r="G7" s="0"/>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+      <c r="E9" s="151"/>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="157" t="s">
         <v>205</v>
       </c>
-      <c r="B8" s="9" t="n">
+      <c r="B10" s="148" t="n">
         <v>7447</v>
       </c>
-      <c r="C8" s="9" t="n">
+      <c r="C10" s="148" t="n">
         <v>14509</v>
       </c>
-      <c r="D8" s="9" t="n">
+      <c r="D10" s="148" t="n">
         <v>21956</v>
       </c>
-      <c r="E8" s="0"/>
-      <c r="F8" s="0"/>
-      <c r="G8" s="0"/>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="37" t="s">
+      <c r="E10" s="151"/>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="157" t="s">
         <v>206</v>
       </c>
-      <c r="B9" s="9" t="n">
+      <c r="B11" s="148" t="n">
         <v>95613</v>
       </c>
-      <c r="C9" s="9" t="n">
+      <c r="C11" s="148" t="n">
         <v>117172</v>
       </c>
-      <c r="D9" s="9" t="n">
+      <c r="D11" s="148" t="n">
         <v>212785</v>
       </c>
-      <c r="E9" s="0"/>
-      <c r="F9" s="0"/>
-      <c r="G9" s="0"/>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="37" t="s">
+      <c r="E11" s="151"/>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="149" t="s">
         <v>207</v>
       </c>
-      <c r="B10" s="9" t="n">
+      <c r="B12" s="148" t="n">
         <v>112552</v>
       </c>
-      <c r="C10" s="9" t="n">
+      <c r="C12" s="148" t="n">
         <v>146484</v>
       </c>
-      <c r="D10" s="9" t="n">
+      <c r="D12" s="148" t="n">
         <v>259036</v>
       </c>
-      <c r="E10" s="0"/>
-      <c r="F10" s="0"/>
-      <c r="G10" s="0"/>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="37" t="s">
+      <c r="E12" s="151"/>
+    </row>
+    <row r="13" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="B11" s="11" t="n">
+      <c r="B13" s="148" t="n">
         <v>30519</v>
       </c>
-      <c r="C11" s="11" t="n">
+      <c r="C13" s="148" t="n">
         <v>52839</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D13" s="148" t="n">
         <v>83358</v>
       </c>
-      <c r="E11" s="0"/>
-      <c r="F11" s="0"/>
-      <c r="G11" s="0"/>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="150" t="s">
+      <c r="E13" s="151"/>
+      <c r="G13" s="151"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="158" t="s">
         <v>209</v>
       </c>
-      <c r="B12" s="151" t="n">
-        <v>103456</v>
-      </c>
-      <c r="C12" s="151" t="n">
-        <v>138183</v>
-      </c>
-      <c r="D12" s="151" t="n">
-        <v>241639</v>
-      </c>
-      <c r="E12" s="148"/>
-    </row>
-    <row r="13" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="152" t="s">
+      <c r="B14" s="154"/>
+      <c r="C14" s="154"/>
+      <c r="D14" s="154"/>
+      <c r="I14" s="151"/>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="158" t="s">
         <v>210</v>
       </c>
-      <c r="B13" s="153" t="n">
-        <v>28629</v>
-      </c>
-      <c r="C13" s="153" t="n">
-        <v>50777</v>
-      </c>
-      <c r="D13" s="153" t="n">
-        <v>79406</v>
-      </c>
-      <c r="E13" s="148"/>
-      <c r="G13" s="148"/>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="154" t="s">
+      <c r="B15" s="154"/>
+      <c r="C15" s="154"/>
+      <c r="D15" s="154"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="158" t="s">
         <v>211</v>
       </c>
-      <c r="B14" s="149"/>
-      <c r="C14" s="149"/>
-      <c r="D14" s="149"/>
-      <c r="I14" s="148"/>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="154" t="s">
-        <v>212</v>
-      </c>
-      <c r="B15" s="149"/>
-      <c r="C15" s="149"/>
-      <c r="D15" s="149"/>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="154" t="s">
-        <v>213</v>
-      </c>
-      <c r="B16" s="149"/>
-      <c r="C16" s="149"/>
-      <c r="D16" s="149"/>
+      <c r="B16" s="154"/>
+      <c r="C16" s="154"/>
+      <c r="D16" s="154"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -8553,57 +8487,57 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="19.57"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="155"/>
-      <c r="B3" s="156" t="n">
+      <c r="A3" s="159"/>
+      <c r="B3" s="160" t="n">
         <v>2017</v>
       </c>
-      <c r="C3" s="156" t="n">
+      <c r="C3" s="160" t="n">
         <v>2018</v>
       </c>
-      <c r="D3" s="156" t="n">
+      <c r="D3" s="160" t="n">
         <v>2019</v>
       </c>
-      <c r="E3" s="156" t="n">
+      <c r="E3" s="160" t="n">
         <v>2020</v>
       </c>
-      <c r="F3" s="156" t="n">
+      <c r="F3" s="160" t="n">
         <v>2021</v>
       </c>
-      <c r="G3" s="156" t="n">
+      <c r="G3" s="160" t="n">
         <v>2022</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="25.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="157" t="s">
-        <v>215</v>
-      </c>
-      <c r="B4" s="158" t="n">
+      <c r="A4" s="161" t="s">
+        <v>213</v>
+      </c>
+      <c r="B4" s="162" t="n">
         <v>2532</v>
       </c>
-      <c r="C4" s="158" t="n">
+      <c r="C4" s="162" t="n">
         <v>2544</v>
       </c>
-      <c r="D4" s="158" t="n">
+      <c r="D4" s="162" t="n">
         <v>2576</v>
       </c>
-      <c r="E4" s="158" t="n">
+      <c r="E4" s="162" t="n">
         <v>2587</v>
       </c>
-      <c r="F4" s="158" t="n">
+      <c r="F4" s="162" t="n">
         <v>2630</v>
       </c>
-      <c r="G4" s="159" t="n">
+      <c r="G4" s="163" t="n">
         <v>2606</v>
       </c>
     </row>
@@ -8629,304 +8563,304 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="159"/>
+      <c r="B3" s="164" t="s">
+        <v>215</v>
+      </c>
+      <c r="C3" s="164" t="s">
         <v>216</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="52.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="155"/>
-      <c r="B3" s="160" t="s">
+      <c r="D3" s="164" t="s">
         <v>217</v>
       </c>
-      <c r="C3" s="160" t="s">
+      <c r="E3" s="164" t="s">
+        <v>216</v>
+      </c>
+      <c r="F3" s="164" t="s">
         <v>218</v>
       </c>
-      <c r="D3" s="160" t="s">
+      <c r="G3" s="164" t="s">
         <v>219</v>
       </c>
-      <c r="E3" s="160" t="s">
-        <v>218</v>
-      </c>
-      <c r="F3" s="160" t="s">
+      <c r="H3" s="164" t="s">
         <v>220</v>
       </c>
-      <c r="G3" s="160" t="s">
+      <c r="I3" s="164" t="s">
         <v>221</v>
       </c>
-      <c r="H3" s="160" t="s">
+      <c r="J3" s="164" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="165" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B4" s="166" t="n">
+        <v>748</v>
+      </c>
+      <c r="C4" s="166" t="n">
+        <v>0.734288388164999</v>
+      </c>
+      <c r="D4" s="166" t="n">
+        <v>5363</v>
+      </c>
+      <c r="E4" s="166" t="n">
+        <v>9.52761640817922</v>
+      </c>
+      <c r="F4" s="166" t="n">
+        <v>84872</v>
+      </c>
+      <c r="G4" s="166" t="n">
+        <v>98.9218737251885</v>
+      </c>
+      <c r="H4" s="166" t="n">
+        <v>4910</v>
+      </c>
+      <c r="I4" s="166" t="n">
+        <v>17</v>
+      </c>
+      <c r="J4" s="166" t="n">
+        <v>95893</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="167" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B5" s="168" t="n">
+        <v>539</v>
+      </c>
+      <c r="C5" s="168" t="n">
+        <v>0.491013297354393</v>
+      </c>
+      <c r="D5" s="168" t="n">
+        <v>5701</v>
+      </c>
+      <c r="E5" s="168" t="n">
+        <v>10.1886446382464</v>
+      </c>
+      <c r="F5" s="168" t="n">
+        <v>85425</v>
+      </c>
+      <c r="G5" s="168" t="n">
+        <v>98.5888961089166</v>
+      </c>
+      <c r="H5" s="168" t="n">
+        <v>4884</v>
+      </c>
+      <c r="I5" s="168" t="n">
+        <v>16.8816474264963</v>
+      </c>
+      <c r="J5" s="168" t="n">
+        <v>96549</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="167" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B6" s="168" t="n">
+        <v>609</v>
+      </c>
+      <c r="C6" s="168" t="n">
+        <v>0.544214286140985</v>
+      </c>
+      <c r="D6" s="168" t="n">
+        <v>5990</v>
+      </c>
+      <c r="E6" s="168" t="n">
+        <v>10.971347788438</v>
+      </c>
+      <c r="F6" s="168" t="n">
+        <v>84450</v>
+      </c>
+      <c r="G6" s="168" t="n">
+        <v>98.3387050829174</v>
+      </c>
+      <c r="H6" s="168" t="n">
+        <v>5326</v>
+      </c>
+      <c r="I6" s="168" t="n">
+        <v>18.6525183994873</v>
+      </c>
+      <c r="J6" s="168" t="n">
+        <v>96375</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="167" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B7" s="168" t="n">
+        <v>425</v>
+      </c>
+      <c r="C7" s="168" t="n">
+        <v>0.415578627570101</v>
+      </c>
+      <c r="D7" s="168" t="n">
+        <v>4863</v>
+      </c>
+      <c r="E7" s="168" t="n">
+        <v>9.24123422211002</v>
+      </c>
+      <c r="F7" s="168" t="n">
+        <v>78898</v>
+      </c>
+      <c r="G7" s="168" t="n">
+        <v>94.75515987952</v>
+      </c>
+      <c r="H7" s="168" t="n">
+        <v>5940</v>
+      </c>
+      <c r="I7" s="168" t="n">
+        <v>21.2275519411192</v>
+      </c>
+      <c r="J7" s="168" t="n">
+        <v>90126</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="167" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B8" s="168" t="n">
+        <v>555</v>
+      </c>
+      <c r="C8" s="168" t="n">
+        <v>0.541181587948466</v>
+      </c>
+      <c r="D8" s="168" t="n">
+        <v>6474</v>
+      </c>
+      <c r="E8" s="168" t="n">
+        <v>12.6089148439223</v>
+      </c>
+      <c r="F8" s="168" t="n">
+        <v>78115</v>
+      </c>
+      <c r="G8" s="168" t="n">
+        <v>96.9108566337529</v>
+      </c>
+      <c r="H8" s="168" t="n">
+        <v>6459</v>
+      </c>
+      <c r="I8" s="168" t="n">
+        <v>23.8870685549696</v>
+      </c>
+      <c r="J8" s="168" t="n">
+        <v>91603</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="169" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B9" s="170" t="n">
+        <v>582</v>
+      </c>
+      <c r="C9" s="170" t="n">
+        <v>0.569397501695085</v>
+      </c>
+      <c r="D9" s="170" t="n">
+        <v>7042</v>
+      </c>
+      <c r="E9" s="170" t="n">
+        <v>13.5991691286644</v>
+      </c>
+      <c r="F9" s="170" t="n">
+        <v>77974</v>
+      </c>
+      <c r="G9" s="170" t="n">
+        <v>98.8519215508658</v>
+      </c>
+      <c r="H9" s="170" t="n">
+        <v>7017</v>
+      </c>
+      <c r="I9" s="170" t="n">
+        <v>26.6244066494087</v>
+      </c>
+      <c r="J9" s="170" t="n">
+        <v>92615</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="171" t="s">
         <v>222</v>
       </c>
-      <c r="I3" s="160" t="s">
+      <c r="B10" s="171"/>
+      <c r="C10" s="171"/>
+      <c r="D10" s="171"/>
+      <c r="E10" s="171"/>
+      <c r="F10" s="171"/>
+      <c r="G10" s="171"/>
+      <c r="H10" s="171"/>
+      <c r="I10" s="171"/>
+      <c r="J10" s="171"/>
+    </row>
+    <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="172" t="s">
         <v>223</v>
       </c>
-      <c r="J3" s="160" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="161" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B4" s="162" t="n">
-        <v>748</v>
-      </c>
-      <c r="C4" s="162" t="n">
-        <v>0.734288388164999</v>
-      </c>
-      <c r="D4" s="162" t="n">
-        <v>5363</v>
-      </c>
-      <c r="E4" s="162" t="n">
-        <v>9.52761640817922</v>
-      </c>
-      <c r="F4" s="162" t="n">
-        <v>84872</v>
-      </c>
-      <c r="G4" s="162" t="n">
-        <v>98.9218737251885</v>
-      </c>
-      <c r="H4" s="162" t="n">
-        <v>4910</v>
-      </c>
-      <c r="I4" s="162" t="n">
-        <v>17</v>
-      </c>
-      <c r="J4" s="162" t="n">
-        <v>95893</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="163" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B5" s="164" t="n">
-        <v>539</v>
-      </c>
-      <c r="C5" s="164" t="n">
-        <v>0.491013297354393</v>
-      </c>
-      <c r="D5" s="164" t="n">
-        <v>5701</v>
-      </c>
-      <c r="E5" s="164" t="n">
-        <v>10.1886446382464</v>
-      </c>
-      <c r="F5" s="164" t="n">
-        <v>85425</v>
-      </c>
-      <c r="G5" s="164" t="n">
-        <v>98.5888961089166</v>
-      </c>
-      <c r="H5" s="164" t="n">
-        <v>4884</v>
-      </c>
-      <c r="I5" s="164" t="n">
-        <v>16.8816474264963</v>
-      </c>
-      <c r="J5" s="164" t="n">
-        <v>96549</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="163" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B6" s="164" t="n">
-        <v>609</v>
-      </c>
-      <c r="C6" s="164" t="n">
-        <v>0.544214286140985</v>
-      </c>
-      <c r="D6" s="164" t="n">
-        <v>5990</v>
-      </c>
-      <c r="E6" s="164" t="n">
-        <v>10.971347788438</v>
-      </c>
-      <c r="F6" s="164" t="n">
-        <v>84450</v>
-      </c>
-      <c r="G6" s="164" t="n">
-        <v>98.3387050829174</v>
-      </c>
-      <c r="H6" s="164" t="n">
-        <v>5326</v>
-      </c>
-      <c r="I6" s="164" t="n">
-        <v>18.6525183994873</v>
-      </c>
-      <c r="J6" s="164" t="n">
-        <v>96375</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="163" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B7" s="164" t="n">
-        <v>425</v>
-      </c>
-      <c r="C7" s="164" t="n">
-        <v>0.415578627570101</v>
-      </c>
-      <c r="D7" s="164" t="n">
-        <v>4863</v>
-      </c>
-      <c r="E7" s="164" t="n">
-        <v>9.24123422211002</v>
-      </c>
-      <c r="F7" s="164" t="n">
-        <v>78898</v>
-      </c>
-      <c r="G7" s="164" t="n">
-        <v>94.75515987952</v>
-      </c>
-      <c r="H7" s="164" t="n">
-        <v>5940</v>
-      </c>
-      <c r="I7" s="164" t="n">
-        <v>21.2275519411192</v>
-      </c>
-      <c r="J7" s="164" t="n">
-        <v>90126</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="163" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B8" s="164" t="n">
-        <v>555</v>
-      </c>
-      <c r="C8" s="164" t="n">
-        <v>0.541181587948466</v>
-      </c>
-      <c r="D8" s="164" t="n">
-        <v>6474</v>
-      </c>
-      <c r="E8" s="164" t="n">
-        <v>12.6089148439223</v>
-      </c>
-      <c r="F8" s="164" t="n">
-        <v>78115</v>
-      </c>
-      <c r="G8" s="164" t="n">
-        <v>96.9108566337529</v>
-      </c>
-      <c r="H8" s="164" t="n">
-        <v>6459</v>
-      </c>
-      <c r="I8" s="164" t="n">
-        <v>23.8870685549696</v>
-      </c>
-      <c r="J8" s="164" t="n">
-        <v>91603</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="165" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B9" s="166" t="n">
-        <v>582</v>
-      </c>
-      <c r="C9" s="166" t="n">
-        <v>0.569397501695085</v>
-      </c>
-      <c r="D9" s="166" t="n">
-        <v>7042</v>
-      </c>
-      <c r="E9" s="166" t="n">
-        <v>13.5991691286644</v>
-      </c>
-      <c r="F9" s="166" t="n">
-        <v>77974</v>
-      </c>
-      <c r="G9" s="166" t="n">
-        <v>98.8519215508658</v>
-      </c>
-      <c r="H9" s="166" t="n">
-        <v>7017</v>
-      </c>
-      <c r="I9" s="166" t="n">
-        <v>26.6244066494087</v>
-      </c>
-      <c r="J9" s="166" t="n">
-        <v>92615</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="167" t="s">
+      <c r="B11" s="172"/>
+      <c r="C11" s="172"/>
+      <c r="D11" s="172"/>
+      <c r="E11" s="172"/>
+      <c r="F11" s="172"/>
+      <c r="G11" s="172"/>
+      <c r="H11" s="172"/>
+      <c r="I11" s="172"/>
+      <c r="J11" s="172"/>
+    </row>
+    <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="172" t="s">
         <v>224</v>
       </c>
-      <c r="B10" s="167"/>
-      <c r="C10" s="167"/>
-      <c r="D10" s="167"/>
-      <c r="E10" s="167"/>
-      <c r="F10" s="167"/>
-      <c r="G10" s="167"/>
-      <c r="H10" s="167"/>
-      <c r="I10" s="167"/>
-      <c r="J10" s="167"/>
-    </row>
-    <row r="11" customFormat="false" ht="27.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="168" t="s">
+      <c r="B12" s="172"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+    </row>
+    <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="172" t="s">
         <v>225</v>
       </c>
-      <c r="B11" s="168"/>
-      <c r="C11" s="168"/>
-      <c r="D11" s="168"/>
-      <c r="E11" s="168"/>
-      <c r="F11" s="168"/>
-      <c r="G11" s="168"/>
-      <c r="H11" s="168"/>
-      <c r="I11" s="168"/>
-      <c r="J11" s="168"/>
-    </row>
-    <row r="12" customFormat="false" ht="61.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="168" t="s">
+      <c r="B13" s="172"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+    </row>
+    <row r="14" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="172" t="s">
         <v>226</v>
       </c>
-      <c r="B12" s="168"/>
-      <c r="C12" s="168"/>
-      <c r="D12" s="168"/>
-      <c r="E12" s="168"/>
-      <c r="F12" s="168"/>
-      <c r="G12" s="168"/>
-      <c r="H12" s="168"/>
-      <c r="I12" s="168"/>
-      <c r="J12" s="168"/>
-    </row>
-    <row r="13" customFormat="false" ht="26.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="168" t="s">
-        <v>227</v>
-      </c>
-      <c r="B13" s="168"/>
-      <c r="C13" s="168"/>
-      <c r="D13" s="168"/>
-      <c r="E13" s="168"/>
-      <c r="F13" s="168"/>
-      <c r="G13" s="168"/>
-      <c r="H13" s="168"/>
-      <c r="I13" s="168"/>
-      <c r="J13" s="168"/>
-    </row>
-    <row r="14" customFormat="false" ht="75.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="168" t="s">
-        <v>228</v>
-      </c>
-      <c r="B14" s="168"/>
-      <c r="C14" s="168"/>
-      <c r="D14" s="168"/>
-      <c r="E14" s="168"/>
-      <c r="F14" s="168"/>
-      <c r="G14" s="168"/>
-      <c r="H14" s="168"/>
-      <c r="I14" s="168"/>
-      <c r="J14" s="168"/>
+      <c r="B14" s="172"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -8957,7 +8891,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="11.85"/>
@@ -8967,1022 +8901,1022 @@
   <sheetData>
     <row r="1" customFormat="false" ht="18.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="173"/>
+      <c r="B3" s="173" t="s">
+        <v>228</v>
+      </c>
+      <c r="C3" s="174" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="169"/>
-      <c r="B3" s="169" t="s">
+      <c r="D3" s="174"/>
+      <c r="E3" s="174" t="s">
         <v>230</v>
       </c>
-      <c r="C3" s="170" t="s">
+      <c r="F3" s="174"/>
+      <c r="G3" s="174" t="s">
         <v>231</v>
       </c>
-      <c r="D3" s="170"/>
-      <c r="E3" s="170" t="s">
+      <c r="H3" s="174"/>
+      <c r="I3" s="175" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="173"/>
+      <c r="B4" s="173"/>
+      <c r="C4" s="176" t="s">
         <v>232</v>
       </c>
-      <c r="F3" s="170"/>
-      <c r="G3" s="170" t="s">
+      <c r="D4" s="177" t="s">
         <v>233</v>
       </c>
-      <c r="H3" s="170"/>
-      <c r="I3" s="171" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="27" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="169"/>
-      <c r="B4" s="169"/>
-      <c r="C4" s="172" t="s">
+      <c r="E4" s="176" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="177" t="s">
         <v>234</v>
       </c>
-      <c r="D4" s="173" t="s">
+      <c r="G4" s="176" t="s">
+        <v>232</v>
+      </c>
+      <c r="H4" s="177" t="s">
         <v>235</v>
       </c>
-      <c r="E4" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="F4" s="173" t="s">
+      <c r="I4" s="175"/>
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="B5" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" s="179" t="n">
+        <v>189</v>
+      </c>
+      <c r="D5" s="179" t="n">
+        <v>8.65220723155707</v>
+      </c>
+      <c r="E5" s="179" t="n">
+        <v>3224</v>
+      </c>
+      <c r="F5" s="179" t="n">
+        <v>100.097881274944</v>
+      </c>
+      <c r="G5" s="179" t="n">
+        <v>327</v>
+      </c>
+      <c r="H5" s="179" t="n">
+        <v>30.9420900404214</v>
+      </c>
+      <c r="I5" s="179" t="n">
+        <v>3740</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="179" t="n">
+        <v>3</v>
+      </c>
+      <c r="C6" s="179" t="n">
+        <v>144</v>
+      </c>
+      <c r="D6" s="179" t="n">
+        <v>5.27388903159517</v>
+      </c>
+      <c r="E6" s="179" t="n">
+        <v>4198</v>
+      </c>
+      <c r="F6" s="179" t="n">
+        <v>98.3370901400409</v>
+      </c>
+      <c r="G6" s="179" t="n">
+        <v>420</v>
+      </c>
+      <c r="H6" s="179" t="n">
+        <v>28.81523744627</v>
+      </c>
+      <c r="I6" s="179" t="n">
+        <v>4765</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="178" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" s="179" t="n">
+        <v>131</v>
+      </c>
+      <c r="D7" s="179" t="n">
+        <v>12.5483537420679</v>
+      </c>
+      <c r="E7" s="179" t="n">
+        <v>1484</v>
+      </c>
+      <c r="F7" s="179" t="n">
+        <v>92.7230339354488</v>
+      </c>
+      <c r="G7" s="179" t="n">
+        <v>191</v>
+      </c>
+      <c r="H7" s="179" t="n">
+        <v>35.6091167488987</v>
+      </c>
+      <c r="I7" s="179" t="n">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" s="179" t="n">
+        <v>85</v>
+      </c>
+      <c r="D8" s="179" t="n">
+        <v>13.6745092162446</v>
+      </c>
+      <c r="E8" s="179" t="n">
+        <v>1093</v>
+      </c>
+      <c r="F8" s="179" t="n">
+        <v>110.261574451892</v>
+      </c>
+      <c r="G8" s="179" t="n">
+        <v>112</v>
+      </c>
+      <c r="H8" s="179" t="n">
+        <v>34.1454381656166</v>
+      </c>
+      <c r="I8" s="179" t="n">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B9" s="179" t="n">
+        <v>115</v>
+      </c>
+      <c r="C9" s="179" t="n">
+        <v>560</v>
+      </c>
+      <c r="D9" s="179" t="n">
+        <v>11.6909293488084</v>
+      </c>
+      <c r="E9" s="179" t="n">
+        <v>6484</v>
+      </c>
+      <c r="F9" s="179" t="n">
+        <v>92.2345823222211</v>
+      </c>
+      <c r="G9" s="179" t="n">
+        <v>606</v>
+      </c>
+      <c r="H9" s="179" t="n">
+        <v>26.0677421526278</v>
+      </c>
+      <c r="I9" s="179" t="n">
+        <v>7765</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C10" s="179" t="n">
+        <v>151</v>
+      </c>
+      <c r="D10" s="179" t="n">
+        <v>29.6177077511715</v>
+      </c>
+      <c r="E10" s="179" t="n">
+        <v>694</v>
+      </c>
+      <c r="F10" s="179" t="n">
+        <v>89.7881459426653</v>
+      </c>
+      <c r="G10" s="179" t="n">
+        <v>50</v>
+      </c>
+      <c r="H10" s="179" t="n">
+        <v>19.1725715356743</v>
+      </c>
+      <c r="I10" s="179" t="n">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B11" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" s="179" t="n">
+        <v>192</v>
+      </c>
+      <c r="D11" s="179" t="n">
+        <v>16.069487693359</v>
+      </c>
+      <c r="E11" s="179" t="n">
+        <v>1875</v>
+      </c>
+      <c r="F11" s="179" t="n">
+        <v>102.768845377125</v>
+      </c>
+      <c r="G11" s="179" t="n">
+        <v>177</v>
+      </c>
+      <c r="H11" s="179" t="n">
+        <v>28.5636860517874</v>
+      </c>
+      <c r="I11" s="179" t="n">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C12" s="179" t="n">
+        <v>280</v>
+      </c>
+      <c r="D12" s="179" t="n">
+        <v>19.743756181998</v>
+      </c>
+      <c r="E12" s="179" t="n">
+        <v>2052</v>
+      </c>
+      <c r="F12" s="179" t="n">
+        <v>98.836671597298</v>
+      </c>
+      <c r="G12" s="179" t="n">
+        <v>213</v>
+      </c>
+      <c r="H12" s="179" t="n">
+        <v>31.0509743627172</v>
+      </c>
+      <c r="I12" s="179" t="n">
+        <v>2546</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" s="179" t="n">
+        <v>70</v>
+      </c>
+      <c r="C13" s="179" t="n">
+        <v>355</v>
+      </c>
+      <c r="D13" s="179" t="n">
+        <v>30.2263682636546</v>
+      </c>
+      <c r="E13" s="179" t="n">
+        <v>1786</v>
+      </c>
+      <c r="F13" s="179" t="n">
+        <v>99.1076135588031</v>
+      </c>
+      <c r="G13" s="179" t="n">
+        <v>135</v>
+      </c>
+      <c r="H13" s="179" t="n">
+        <v>22.2979535108335</v>
+      </c>
+      <c r="I13" s="179" t="n">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="179" t="n">
+        <v>17</v>
+      </c>
+      <c r="C14" s="179" t="n">
+        <v>79</v>
+      </c>
+      <c r="D14" s="179" t="n">
+        <v>7.46110316168613</v>
+      </c>
+      <c r="E14" s="179" t="n">
+        <v>1754</v>
+      </c>
+      <c r="F14" s="179" t="n">
+        <v>101.38218903814</v>
+      </c>
+      <c r="G14" s="179" t="n">
+        <v>174</v>
+      </c>
+      <c r="H14" s="179" t="n">
+        <v>29.6443468682007</v>
+      </c>
+      <c r="I14" s="179" t="n">
+        <v>2024</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" s="179" t="n">
+        <v>17</v>
+      </c>
+      <c r="D15" s="179" t="n">
+        <v>1.58233900561278</v>
+      </c>
+      <c r="E15" s="179" t="n">
+        <v>1864</v>
+      </c>
+      <c r="F15" s="179" t="n">
+        <v>113.314273085393</v>
+      </c>
+      <c r="G15" s="179" t="n">
+        <v>192</v>
+      </c>
+      <c r="H15" s="179" t="n">
+        <v>34.3412869999838</v>
+      </c>
+      <c r="I15" s="179" t="n">
+        <v>2073</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="179" t="n">
+        <v>4</v>
+      </c>
+      <c r="C16" s="179" t="n">
+        <v>62</v>
+      </c>
+      <c r="D16" s="179" t="n">
+        <v>6.35236985782257</v>
+      </c>
+      <c r="E16" s="179" t="n">
+        <v>1692</v>
+      </c>
+      <c r="F16" s="179" t="n">
+        <v>103.899428637422</v>
+      </c>
+      <c r="G16" s="179" t="n">
+        <v>139</v>
+      </c>
+      <c r="H16" s="179" t="n">
+        <v>24.767656868269</v>
+      </c>
+      <c r="I16" s="179" t="n">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" s="179" t="n">
+        <v>1</v>
+      </c>
+      <c r="C17" s="179" t="n">
+        <v>227</v>
+      </c>
+      <c r="D17" s="179" t="n">
+        <v>14.8124907259917</v>
+      </c>
+      <c r="E17" s="179" t="n">
+        <v>2276</v>
+      </c>
+      <c r="F17" s="179" t="n">
+        <v>97.1341439127239</v>
+      </c>
+      <c r="G17" s="179" t="n">
+        <v>195</v>
+      </c>
+      <c r="H17" s="179" t="n">
+        <v>24.8008028858234</v>
+      </c>
+      <c r="I17" s="179" t="n">
+        <v>2699</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B18" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" s="179" t="n">
+        <v>688</v>
+      </c>
+      <c r="D18" s="179" t="n">
+        <v>19.5653884600671</v>
+      </c>
+      <c r="E18" s="179" t="n">
+        <v>5310</v>
+      </c>
+      <c r="F18" s="179" t="n">
+        <v>99.447259726047</v>
+      </c>
+      <c r="G18" s="179" t="n">
+        <v>454</v>
+      </c>
+      <c r="H18" s="179" t="n">
+        <v>25.4074888568312</v>
+      </c>
+      <c r="I18" s="179" t="n">
+        <v>6452</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B19" s="179" t="n">
+        <v>52</v>
+      </c>
+      <c r="C19" s="179" t="n">
+        <v>964</v>
+      </c>
+      <c r="D19" s="179" t="n">
+        <v>15.3204822298778</v>
+      </c>
+      <c r="E19" s="179" t="n">
+        <v>8666</v>
+      </c>
+      <c r="F19" s="179" t="n">
+        <v>92.8779910008989</v>
+      </c>
+      <c r="G19" s="179" t="n">
+        <v>721</v>
+      </c>
+      <c r="H19" s="179" t="n">
+        <v>24.0185607240953</v>
+      </c>
+      <c r="I19" s="179" t="n">
+        <v>10403</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B20" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C20" s="179" t="n">
+        <v>196</v>
+      </c>
+      <c r="D20" s="179" t="n">
+        <v>9.46402704007726</v>
+      </c>
+      <c r="E20" s="179" t="n">
+        <v>3310</v>
+      </c>
+      <c r="F20" s="179" t="n">
+        <v>105.788074945379</v>
+      </c>
+      <c r="G20" s="179" t="n">
+        <v>440</v>
+      </c>
+      <c r="H20" s="179" t="n">
+        <v>42.1630223884937</v>
+      </c>
+      <c r="I20" s="179" t="n">
+        <v>3946</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B21" s="179" t="n">
+        <v>54</v>
+      </c>
+      <c r="C21" s="179" t="n">
+        <v>151</v>
+      </c>
+      <c r="D21" s="179" t="n">
+        <v>22.3879081330073</v>
+      </c>
+      <c r="E21" s="179" t="n">
+        <v>982</v>
+      </c>
+      <c r="F21" s="179" t="n">
+        <v>97.7508764534608</v>
+      </c>
+      <c r="G21" s="179" t="n">
+        <v>68</v>
+      </c>
+      <c r="H21" s="179" t="n">
+        <v>20.3848034713727</v>
+      </c>
+      <c r="I21" s="179" t="n">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B22" s="179" t="n">
+        <v>24</v>
+      </c>
+      <c r="C22" s="179" t="n">
+        <v>174</v>
+      </c>
+      <c r="D22" s="179" t="n">
+        <v>15.450073710791</v>
+      </c>
+      <c r="E22" s="179" t="n">
+        <v>1815</v>
+      </c>
+      <c r="F22" s="179" t="n">
+        <v>105.583454145667</v>
+      </c>
+      <c r="G22" s="179" t="n">
+        <v>183</v>
+      </c>
+      <c r="H22" s="179" t="n">
+        <v>30.955541571629</v>
+      </c>
+      <c r="I22" s="179" t="n">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B23" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C23" s="179" t="n">
+        <v>87</v>
+      </c>
+      <c r="D23" s="179" t="n">
+        <v>10.4467889817712</v>
+      </c>
+      <c r="E23" s="179" t="n">
+        <v>1315</v>
+      </c>
+      <c r="F23" s="179" t="n">
+        <v>105.623674416394</v>
+      </c>
+      <c r="G23" s="179" t="n">
+        <v>119</v>
+      </c>
+      <c r="H23" s="179" t="n">
+        <v>28.5153485493254</v>
+      </c>
+      <c r="I23" s="179" t="n">
+        <v>1521</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="B24" s="179" t="n">
+        <v>2</v>
+      </c>
+      <c r="C24" s="179" t="n">
+        <v>29</v>
+      </c>
+      <c r="D24" s="179" t="n">
+        <v>12.6004404499732</v>
+      </c>
+      <c r="E24" s="179" t="n">
+        <v>331</v>
+      </c>
+      <c r="F24" s="179" t="n">
+        <v>95.1195136193921</v>
+      </c>
+      <c r="G24" s="179" t="n">
+        <v>44</v>
+      </c>
+      <c r="H24" s="179" t="n">
+        <v>37.4440517429156</v>
+      </c>
+      <c r="I24" s="179" t="n">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C25" s="179" t="n">
+        <v>183</v>
+      </c>
+      <c r="D25" s="179" t="n">
+        <v>15.0390752527902</v>
+      </c>
+      <c r="E25" s="179" t="n">
+        <v>1668</v>
+      </c>
+      <c r="F25" s="179" t="n">
+        <v>89.5247429773274</v>
+      </c>
+      <c r="G25" s="179" t="n">
+        <v>101</v>
+      </c>
+      <c r="H25" s="179" t="n">
+        <v>16.0700178394458</v>
+      </c>
+      <c r="I25" s="179" t="n">
+        <v>1952</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B26" s="179" t="n">
+        <v>39</v>
+      </c>
+      <c r="C26" s="179" t="n">
+        <v>359</v>
+      </c>
+      <c r="D26" s="179" t="n">
+        <v>10.5583641001923</v>
+      </c>
+      <c r="E26" s="179" t="n">
+        <v>5126</v>
+      </c>
+      <c r="F26" s="179" t="n">
+        <v>96.6288726189331</v>
+      </c>
+      <c r="G26" s="179" t="n">
+        <v>331</v>
+      </c>
+      <c r="H26" s="179" t="n">
+        <v>18.8234606269966</v>
+      </c>
+      <c r="I26" s="179" t="n">
+        <v>5855</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B27" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C27" s="179" t="n">
+        <v>19</v>
+      </c>
+      <c r="D27" s="179" t="n">
+        <v>10.6628330693891</v>
+      </c>
+      <c r="E27" s="179" t="n">
+        <v>300</v>
+      </c>
+      <c r="F27" s="179" t="n">
+        <v>106.944478189079</v>
+      </c>
+      <c r="G27" s="179" t="n">
+        <v>63</v>
+      </c>
+      <c r="H27" s="179" t="n">
+        <v>66.4874666252631</v>
+      </c>
+      <c r="I27" s="179" t="n">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="178" t="s">
+        <v>58</v>
+      </c>
+      <c r="B28" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C28" s="179" t="n">
+        <v>181</v>
+      </c>
+      <c r="D28" s="179" t="n">
+        <v>14.3258305143551</v>
+      </c>
+      <c r="E28" s="179" t="n">
+        <v>2015</v>
+      </c>
+      <c r="F28" s="179" t="n">
+        <v>103.32194237144</v>
+      </c>
+      <c r="G28" s="179" t="n">
+        <v>202</v>
+      </c>
+      <c r="H28" s="179" t="n">
+        <v>30.4917079882962</v>
+      </c>
+      <c r="I28" s="179" t="n">
+        <v>2398</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B29" s="179" t="n">
+        <v>61</v>
+      </c>
+      <c r="C29" s="179" t="n">
+        <v>297</v>
+      </c>
+      <c r="D29" s="179" t="n">
+        <v>17.4550882294691</v>
+      </c>
+      <c r="E29" s="179" t="n">
+        <v>2825</v>
+      </c>
+      <c r="F29" s="179" t="n">
+        <v>109.398825038339</v>
+      </c>
+      <c r="G29" s="179" t="n">
+        <v>244</v>
+      </c>
+      <c r="H29" s="179" t="n">
+        <v>27.7449648222005</v>
+      </c>
+      <c r="I29" s="179" t="n">
+        <v>3427</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A30" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C30" s="179" t="n">
+        <v>113</v>
+      </c>
+      <c r="D30" s="179" t="n">
+        <v>11.1624722257556</v>
+      </c>
+      <c r="E30" s="179" t="n">
+        <v>1456</v>
+      </c>
+      <c r="F30" s="179" t="n">
+        <v>93.1894506437984</v>
+      </c>
+      <c r="G30" s="179" t="n">
+        <v>135</v>
+      </c>
+      <c r="H30" s="179" t="n">
+        <v>25.1829830768701</v>
+      </c>
+      <c r="I30" s="179" t="n">
+        <v>1704</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C31" s="179" t="n">
+        <v>13</v>
+      </c>
+      <c r="D31" s="179" t="n">
+        <v>5.61325888420953</v>
+      </c>
+      <c r="E31" s="179" t="n">
+        <v>360</v>
+      </c>
+      <c r="F31" s="179" t="n">
+        <v>99.307401224636</v>
+      </c>
+      <c r="G31" s="179" t="n">
+        <v>68</v>
+      </c>
+      <c r="H31" s="179" t="n">
+        <v>57.9730121815446</v>
+      </c>
+      <c r="I31" s="179" t="n">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B32" s="179" t="n">
+        <v>18</v>
+      </c>
+      <c r="C32" s="179" t="n">
+        <v>158</v>
+      </c>
+      <c r="D32" s="179" t="n">
+        <v>16.677848855368</v>
+      </c>
+      <c r="E32" s="179" t="n">
+        <v>1512</v>
+      </c>
+      <c r="F32" s="179" t="n">
+        <v>100.802151858284</v>
+      </c>
+      <c r="G32" s="179" t="n">
+        <v>106</v>
+      </c>
+      <c r="H32" s="179" t="n">
+        <v>21.4695175829342</v>
+      </c>
+      <c r="I32" s="179" t="n">
+        <v>1794</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="179" t="n">
+        <v>59</v>
+      </c>
+      <c r="C33" s="179" t="n">
+        <v>456</v>
+      </c>
+      <c r="D33" s="179" t="n">
+        <v>14.5377554523134</v>
+      </c>
+      <c r="E33" s="179" t="n">
+        <v>5033</v>
+      </c>
+      <c r="F33" s="179" t="n">
+        <v>104.920046867797</v>
+      </c>
+      <c r="G33" s="179" t="n">
+        <v>391</v>
+      </c>
+      <c r="H33" s="179" t="n">
+        <v>23.9249822317044</v>
+      </c>
+      <c r="I33" s="179" t="n">
+        <v>5939</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" s="179" t="n">
+        <v>13</v>
+      </c>
+      <c r="C34" s="179" t="n">
+        <v>103</v>
+      </c>
+      <c r="D34" s="179" t="n">
+        <v>12.359620745884</v>
+      </c>
+      <c r="E34" s="179" t="n">
+        <v>1267</v>
+      </c>
+      <c r="F34" s="179" t="n">
+        <v>99.6771848599898</v>
+      </c>
+      <c r="G34" s="179" t="n">
+        <v>123</v>
+      </c>
+      <c r="H34" s="179" t="n">
+        <v>27.9719177337897</v>
+      </c>
+      <c r="I34" s="179" t="n">
+        <v>1506</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A35" s="178" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="179" t="n">
+        <v>47</v>
+      </c>
+      <c r="C35" s="179" t="n">
+        <v>187</v>
+      </c>
+      <c r="D35" s="179" t="n">
+        <v>21.8848795377739</v>
+      </c>
+      <c r="E35" s="179" t="n">
+        <v>1255</v>
+      </c>
+      <c r="F35" s="179" t="n">
+        <v>97.6571358211128</v>
+      </c>
+      <c r="G35" s="179" t="n">
+        <v>94</v>
+      </c>
+      <c r="H35" s="179" t="n">
+        <v>22.0432117463723</v>
+      </c>
+      <c r="I35" s="179" t="n">
+        <v>1583</v>
+      </c>
+    </row>
+    <row r="36" s="180" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" s="179" t="n">
+        <v>0</v>
+      </c>
+      <c r="C36" s="179" t="n">
+        <v>212</v>
+      </c>
+      <c r="D36" s="179" t="n">
+        <v>10.849539406346</v>
+      </c>
+      <c r="E36" s="179" t="n">
+        <v>2952</v>
+      </c>
+      <c r="F36" s="179" t="n">
+        <v>96.1213533424089</v>
+      </c>
+      <c r="G36" s="179" t="n">
+        <v>199</v>
+      </c>
+      <c r="H36" s="179" t="n">
+        <v>19.4405635582106</v>
+      </c>
+      <c r="I36" s="179" t="n">
+        <v>3363</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A37" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" s="182" t="n">
+        <v>582</v>
+      </c>
+      <c r="C37" s="182" t="n">
+        <v>7042</v>
+      </c>
+      <c r="D37" s="182" t="n">
+        <v>13.5991691286644</v>
+      </c>
+      <c r="E37" s="182" t="n">
+        <v>77974</v>
+      </c>
+      <c r="F37" s="182" t="n">
+        <v>98.8519215508658</v>
+      </c>
+      <c r="G37" s="182" t="n">
+        <v>7017</v>
+      </c>
+      <c r="H37" s="182" t="n">
+        <v>26.6244066494087</v>
+      </c>
+      <c r="I37" s="182" t="n">
+        <v>92615</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="183" t="s">
         <v>236</v>
       </c>
-      <c r="G4" s="172" t="s">
-        <v>234</v>
-      </c>
-      <c r="H4" s="173" t="s">
-        <v>237</v>
-      </c>
-      <c r="I4" s="171"/>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="174" t="s">
-        <v>34</v>
-      </c>
-      <c r="B5" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" s="175" t="n">
-        <v>189</v>
-      </c>
-      <c r="D5" s="175" t="n">
-        <v>8.65220723155707</v>
-      </c>
-      <c r="E5" s="175" t="n">
-        <v>3224</v>
-      </c>
-      <c r="F5" s="175" t="n">
-        <v>100.097881274944</v>
-      </c>
-      <c r="G5" s="175" t="n">
-        <v>327</v>
-      </c>
-      <c r="H5" s="175" t="n">
-        <v>30.9420900404214</v>
-      </c>
-      <c r="I5" s="175" t="n">
-        <v>3740</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="174" t="s">
-        <v>35</v>
-      </c>
-      <c r="B6" s="175" t="n">
-        <v>3</v>
-      </c>
-      <c r="C6" s="175" t="n">
-        <v>144</v>
-      </c>
-      <c r="D6" s="175" t="n">
-        <v>5.27388903159517</v>
-      </c>
-      <c r="E6" s="175" t="n">
-        <v>4198</v>
-      </c>
-      <c r="F6" s="175" t="n">
-        <v>98.3370901400409</v>
-      </c>
-      <c r="G6" s="175" t="n">
-        <v>420</v>
-      </c>
-      <c r="H6" s="175" t="n">
-        <v>28.81523744627</v>
-      </c>
-      <c r="I6" s="175" t="n">
-        <v>4765</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="174" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C7" s="175" t="n">
-        <v>131</v>
-      </c>
-      <c r="D7" s="175" t="n">
-        <v>12.5483537420679</v>
-      </c>
-      <c r="E7" s="175" t="n">
-        <v>1484</v>
-      </c>
-      <c r="F7" s="175" t="n">
-        <v>92.7230339354488</v>
-      </c>
-      <c r="G7" s="175" t="n">
-        <v>191</v>
-      </c>
-      <c r="H7" s="175" t="n">
-        <v>35.6091167488987</v>
-      </c>
-      <c r="I7" s="175" t="n">
-        <v>1806</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" s="175" t="n">
-        <v>85</v>
-      </c>
-      <c r="D8" s="175" t="n">
-        <v>13.6745092162446</v>
-      </c>
-      <c r="E8" s="175" t="n">
-        <v>1093</v>
-      </c>
-      <c r="F8" s="175" t="n">
-        <v>110.261574451892</v>
-      </c>
-      <c r="G8" s="175" t="n">
-        <v>112</v>
-      </c>
-      <c r="H8" s="175" t="n">
-        <v>34.1454381656166</v>
-      </c>
-      <c r="I8" s="175" t="n">
-        <v>1290</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="174" t="s">
-        <v>39</v>
-      </c>
-      <c r="B9" s="175" t="n">
-        <v>115</v>
-      </c>
-      <c r="C9" s="175" t="n">
-        <v>560</v>
-      </c>
-      <c r="D9" s="175" t="n">
-        <v>11.6909293488084</v>
-      </c>
-      <c r="E9" s="175" t="n">
-        <v>6484</v>
-      </c>
-      <c r="F9" s="175" t="n">
-        <v>92.2345823222211</v>
-      </c>
-      <c r="G9" s="175" t="n">
-        <v>606</v>
-      </c>
-      <c r="H9" s="175" t="n">
-        <v>26.0677421526278</v>
-      </c>
-      <c r="I9" s="175" t="n">
-        <v>7765</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B10" s="175" t="n">
-        <v>2</v>
-      </c>
-      <c r="C10" s="175" t="n">
-        <v>151</v>
-      </c>
-      <c r="D10" s="175" t="n">
-        <v>29.6177077511715</v>
-      </c>
-      <c r="E10" s="175" t="n">
-        <v>694</v>
-      </c>
-      <c r="F10" s="175" t="n">
-        <v>89.7881459426653</v>
-      </c>
-      <c r="G10" s="175" t="n">
-        <v>50</v>
-      </c>
-      <c r="H10" s="175" t="n">
-        <v>19.1725715356743</v>
-      </c>
-      <c r="I10" s="175" t="n">
-        <v>897</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="174" t="s">
-        <v>41</v>
-      </c>
-      <c r="B11" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C11" s="175" t="n">
-        <v>192</v>
-      </c>
-      <c r="D11" s="175" t="n">
-        <v>16.069487693359</v>
-      </c>
-      <c r="E11" s="175" t="n">
-        <v>1875</v>
-      </c>
-      <c r="F11" s="175" t="n">
-        <v>102.768845377125</v>
-      </c>
-      <c r="G11" s="175" t="n">
-        <v>177</v>
-      </c>
-      <c r="H11" s="175" t="n">
-        <v>28.5636860517874</v>
-      </c>
-      <c r="I11" s="175" t="n">
-        <v>2244</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="174" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C12" s="175" t="n">
-        <v>280</v>
-      </c>
-      <c r="D12" s="175" t="n">
-        <v>19.743756181998</v>
-      </c>
-      <c r="E12" s="175" t="n">
-        <v>2052</v>
-      </c>
-      <c r="F12" s="175" t="n">
-        <v>98.836671597298</v>
-      </c>
-      <c r="G12" s="175" t="n">
-        <v>213</v>
-      </c>
-      <c r="H12" s="175" t="n">
-        <v>31.0509743627172</v>
-      </c>
-      <c r="I12" s="175" t="n">
-        <v>2546</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="174" t="s">
-        <v>43</v>
-      </c>
-      <c r="B13" s="175" t="n">
-        <v>70</v>
-      </c>
-      <c r="C13" s="175" t="n">
-        <v>355</v>
-      </c>
-      <c r="D13" s="175" t="n">
-        <v>30.2263682636546</v>
-      </c>
-      <c r="E13" s="175" t="n">
-        <v>1786</v>
-      </c>
-      <c r="F13" s="175" t="n">
-        <v>99.1076135588031</v>
-      </c>
-      <c r="G13" s="175" t="n">
-        <v>135</v>
-      </c>
-      <c r="H13" s="175" t="n">
-        <v>22.2979535108335</v>
-      </c>
-      <c r="I13" s="175" t="n">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="174" t="s">
-        <v>44</v>
-      </c>
-      <c r="B14" s="175" t="n">
-        <v>17</v>
-      </c>
-      <c r="C14" s="175" t="n">
-        <v>79</v>
-      </c>
-      <c r="D14" s="175" t="n">
-        <v>7.46110316168613</v>
-      </c>
-      <c r="E14" s="175" t="n">
-        <v>1754</v>
-      </c>
-      <c r="F14" s="175" t="n">
-        <v>101.38218903814</v>
-      </c>
-      <c r="G14" s="175" t="n">
-        <v>174</v>
-      </c>
-      <c r="H14" s="175" t="n">
-        <v>29.6443468682007</v>
-      </c>
-      <c r="I14" s="175" t="n">
-        <v>2024</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" s="175" t="n">
-        <v>17</v>
-      </c>
-      <c r="D15" s="175" t="n">
-        <v>1.58233900561278</v>
-      </c>
-      <c r="E15" s="175" t="n">
-        <v>1864</v>
-      </c>
-      <c r="F15" s="175" t="n">
-        <v>113.314273085393</v>
-      </c>
-      <c r="G15" s="175" t="n">
-        <v>192</v>
-      </c>
-      <c r="H15" s="175" t="n">
-        <v>34.3412869999838</v>
-      </c>
-      <c r="I15" s="175" t="n">
-        <v>2073</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="174" t="s">
-        <v>46</v>
-      </c>
-      <c r="B16" s="175" t="n">
-        <v>4</v>
-      </c>
-      <c r="C16" s="175" t="n">
-        <v>62</v>
-      </c>
-      <c r="D16" s="175" t="n">
-        <v>6.35236985782257</v>
-      </c>
-      <c r="E16" s="175" t="n">
-        <v>1692</v>
-      </c>
-      <c r="F16" s="175" t="n">
-        <v>103.899428637422</v>
-      </c>
-      <c r="G16" s="175" t="n">
-        <v>139</v>
-      </c>
-      <c r="H16" s="175" t="n">
-        <v>24.767656868269</v>
-      </c>
-      <c r="I16" s="175" t="n">
-        <v>1897</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B17" s="175" t="n">
-        <v>1</v>
-      </c>
-      <c r="C17" s="175" t="n">
-        <v>227</v>
-      </c>
-      <c r="D17" s="175" t="n">
-        <v>14.8124907259917</v>
-      </c>
-      <c r="E17" s="175" t="n">
-        <v>2276</v>
-      </c>
-      <c r="F17" s="175" t="n">
-        <v>97.1341439127239</v>
-      </c>
-      <c r="G17" s="175" t="n">
-        <v>195</v>
-      </c>
-      <c r="H17" s="175" t="n">
-        <v>24.8008028858234</v>
-      </c>
-      <c r="I17" s="175" t="n">
-        <v>2699</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="174" t="s">
-        <v>48</v>
-      </c>
-      <c r="B18" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" s="175" t="n">
-        <v>688</v>
-      </c>
-      <c r="D18" s="175" t="n">
-        <v>19.5653884600671</v>
-      </c>
-      <c r="E18" s="175" t="n">
-        <v>5310</v>
-      </c>
-      <c r="F18" s="175" t="n">
-        <v>99.447259726047</v>
-      </c>
-      <c r="G18" s="175" t="n">
-        <v>454</v>
-      </c>
-      <c r="H18" s="175" t="n">
-        <v>25.4074888568312</v>
-      </c>
-      <c r="I18" s="175" t="n">
-        <v>6452</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="174" t="s">
-        <v>49</v>
-      </c>
-      <c r="B19" s="175" t="n">
-        <v>52</v>
-      </c>
-      <c r="C19" s="175" t="n">
-        <v>964</v>
-      </c>
-      <c r="D19" s="175" t="n">
-        <v>15.3204822298778</v>
-      </c>
-      <c r="E19" s="175" t="n">
-        <v>8666</v>
-      </c>
-      <c r="F19" s="175" t="n">
-        <v>92.8779910008989</v>
-      </c>
-      <c r="G19" s="175" t="n">
-        <v>721</v>
-      </c>
-      <c r="H19" s="175" t="n">
-        <v>24.0185607240953</v>
-      </c>
-      <c r="I19" s="175" t="n">
-        <v>10403</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" s="175" t="n">
-        <v>196</v>
-      </c>
-      <c r="D20" s="175" t="n">
-        <v>9.46402704007726</v>
-      </c>
-      <c r="E20" s="175" t="n">
-        <v>3310</v>
-      </c>
-      <c r="F20" s="175" t="n">
-        <v>105.788074945379</v>
-      </c>
-      <c r="G20" s="175" t="n">
-        <v>440</v>
-      </c>
-      <c r="H20" s="175" t="n">
-        <v>42.1630223884937</v>
-      </c>
-      <c r="I20" s="175" t="n">
-        <v>3946</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="B21" s="175" t="n">
-        <v>54</v>
-      </c>
-      <c r="C21" s="175" t="n">
-        <v>151</v>
-      </c>
-      <c r="D21" s="175" t="n">
-        <v>22.3879081330073</v>
-      </c>
-      <c r="E21" s="175" t="n">
-        <v>982</v>
-      </c>
-      <c r="F21" s="175" t="n">
-        <v>97.7508764534608</v>
-      </c>
-      <c r="G21" s="175" t="n">
-        <v>68</v>
-      </c>
-      <c r="H21" s="175" t="n">
-        <v>20.3848034713727</v>
-      </c>
-      <c r="I21" s="175" t="n">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="174" t="s">
-        <v>52</v>
-      </c>
-      <c r="B22" s="175" t="n">
-        <v>24</v>
-      </c>
-      <c r="C22" s="175" t="n">
-        <v>174</v>
-      </c>
-      <c r="D22" s="175" t="n">
-        <v>15.450073710791</v>
-      </c>
-      <c r="E22" s="175" t="n">
-        <v>1815</v>
-      </c>
-      <c r="F22" s="175" t="n">
-        <v>105.583454145667</v>
-      </c>
-      <c r="G22" s="175" t="n">
-        <v>183</v>
-      </c>
-      <c r="H22" s="175" t="n">
-        <v>30.955541571629</v>
-      </c>
-      <c r="I22" s="175" t="n">
-        <v>2196</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B23" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C23" s="175" t="n">
-        <v>87</v>
-      </c>
-      <c r="D23" s="175" t="n">
-        <v>10.4467889817712</v>
-      </c>
-      <c r="E23" s="175" t="n">
-        <v>1315</v>
-      </c>
-      <c r="F23" s="175" t="n">
-        <v>105.623674416394</v>
-      </c>
-      <c r="G23" s="175" t="n">
-        <v>119</v>
-      </c>
-      <c r="H23" s="175" t="n">
-        <v>28.5153485493254</v>
-      </c>
-      <c r="I23" s="175" t="n">
-        <v>1521</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="B24" s="175" t="n">
-        <v>2</v>
-      </c>
-      <c r="C24" s="175" t="n">
-        <v>29</v>
-      </c>
-      <c r="D24" s="175" t="n">
-        <v>12.6004404499732</v>
-      </c>
-      <c r="E24" s="175" t="n">
-        <v>331</v>
-      </c>
-      <c r="F24" s="175" t="n">
-        <v>95.1195136193921</v>
-      </c>
-      <c r="G24" s="175" t="n">
-        <v>44</v>
-      </c>
-      <c r="H24" s="175" t="n">
-        <v>37.4440517429156</v>
-      </c>
-      <c r="I24" s="175" t="n">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="174" t="s">
-        <v>55</v>
-      </c>
-      <c r="B25" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C25" s="175" t="n">
-        <v>183</v>
-      </c>
-      <c r="D25" s="175" t="n">
-        <v>15.0390752527902</v>
-      </c>
-      <c r="E25" s="175" t="n">
-        <v>1668</v>
-      </c>
-      <c r="F25" s="175" t="n">
-        <v>89.5247429773274</v>
-      </c>
-      <c r="G25" s="175" t="n">
-        <v>101</v>
-      </c>
-      <c r="H25" s="175" t="n">
-        <v>16.0700178394458</v>
-      </c>
-      <c r="I25" s="175" t="n">
-        <v>1952</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="174" t="s">
-        <v>56</v>
-      </c>
-      <c r="B26" s="175" t="n">
-        <v>39</v>
-      </c>
-      <c r="C26" s="175" t="n">
-        <v>359</v>
-      </c>
-      <c r="D26" s="175" t="n">
-        <v>10.5583641001923</v>
-      </c>
-      <c r="E26" s="175" t="n">
-        <v>5126</v>
-      </c>
-      <c r="F26" s="175" t="n">
-        <v>96.6288726189331</v>
-      </c>
-      <c r="G26" s="175" t="n">
-        <v>331</v>
-      </c>
-      <c r="H26" s="175" t="n">
-        <v>18.8234606269966</v>
-      </c>
-      <c r="I26" s="175" t="n">
-        <v>5855</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="174" t="s">
-        <v>57</v>
-      </c>
-      <c r="B27" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C27" s="175" t="n">
-        <v>19</v>
-      </c>
-      <c r="D27" s="175" t="n">
-        <v>10.6628330693891</v>
-      </c>
-      <c r="E27" s="175" t="n">
-        <v>300</v>
-      </c>
-      <c r="F27" s="175" t="n">
-        <v>106.944478189079</v>
-      </c>
-      <c r="G27" s="175" t="n">
-        <v>63</v>
-      </c>
-      <c r="H27" s="175" t="n">
-        <v>66.4874666252631</v>
-      </c>
-      <c r="I27" s="175" t="n">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="174" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C28" s="175" t="n">
-        <v>181</v>
-      </c>
-      <c r="D28" s="175" t="n">
-        <v>14.3258305143551</v>
-      </c>
-      <c r="E28" s="175" t="n">
-        <v>2015</v>
-      </c>
-      <c r="F28" s="175" t="n">
-        <v>103.32194237144</v>
-      </c>
-      <c r="G28" s="175" t="n">
-        <v>202</v>
-      </c>
-      <c r="H28" s="175" t="n">
-        <v>30.4917079882962</v>
-      </c>
-      <c r="I28" s="175" t="n">
-        <v>2398</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="174" t="s">
-        <v>59</v>
-      </c>
-      <c r="B29" s="175" t="n">
-        <v>61</v>
-      </c>
-      <c r="C29" s="175" t="n">
-        <v>297</v>
-      </c>
-      <c r="D29" s="175" t="n">
-        <v>17.4550882294691</v>
-      </c>
-      <c r="E29" s="175" t="n">
-        <v>2825</v>
-      </c>
-      <c r="F29" s="175" t="n">
-        <v>109.398825038339</v>
-      </c>
-      <c r="G29" s="175" t="n">
-        <v>244</v>
-      </c>
-      <c r="H29" s="175" t="n">
-        <v>27.7449648222005</v>
-      </c>
-      <c r="I29" s="175" t="n">
-        <v>3427</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A30" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="B30" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C30" s="175" t="n">
-        <v>113</v>
-      </c>
-      <c r="D30" s="175" t="n">
-        <v>11.1624722257556</v>
-      </c>
-      <c r="E30" s="175" t="n">
-        <v>1456</v>
-      </c>
-      <c r="F30" s="175" t="n">
-        <v>93.1894506437984</v>
-      </c>
-      <c r="G30" s="175" t="n">
-        <v>135</v>
-      </c>
-      <c r="H30" s="175" t="n">
-        <v>25.1829830768701</v>
-      </c>
-      <c r="I30" s="175" t="n">
-        <v>1704</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="174" t="s">
-        <v>61</v>
-      </c>
-      <c r="B31" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C31" s="175" t="n">
-        <v>13</v>
-      </c>
-      <c r="D31" s="175" t="n">
-        <v>5.61325888420953</v>
-      </c>
-      <c r="E31" s="175" t="n">
-        <v>360</v>
-      </c>
-      <c r="F31" s="175" t="n">
-        <v>99.307401224636</v>
-      </c>
-      <c r="G31" s="175" t="n">
-        <v>68</v>
-      </c>
-      <c r="H31" s="175" t="n">
-        <v>57.9730121815446</v>
-      </c>
-      <c r="I31" s="175" t="n">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="B32" s="175" t="n">
-        <v>18</v>
-      </c>
-      <c r="C32" s="175" t="n">
-        <v>158</v>
-      </c>
-      <c r="D32" s="175" t="n">
-        <v>16.677848855368</v>
-      </c>
-      <c r="E32" s="175" t="n">
-        <v>1512</v>
-      </c>
-      <c r="F32" s="175" t="n">
-        <v>100.802151858284</v>
-      </c>
-      <c r="G32" s="175" t="n">
-        <v>106</v>
-      </c>
-      <c r="H32" s="175" t="n">
-        <v>21.4695175829342</v>
-      </c>
-      <c r="I32" s="175" t="n">
-        <v>1794</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B33" s="175" t="n">
-        <v>59</v>
-      </c>
-      <c r="C33" s="175" t="n">
-        <v>456</v>
-      </c>
-      <c r="D33" s="175" t="n">
-        <v>14.5377554523134</v>
-      </c>
-      <c r="E33" s="175" t="n">
-        <v>5033</v>
-      </c>
-      <c r="F33" s="175" t="n">
-        <v>104.920046867797</v>
-      </c>
-      <c r="G33" s="175" t="n">
-        <v>391</v>
-      </c>
-      <c r="H33" s="175" t="n">
-        <v>23.9249822317044</v>
-      </c>
-      <c r="I33" s="175" t="n">
-        <v>5939</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="B34" s="175" t="n">
-        <v>13</v>
-      </c>
-      <c r="C34" s="175" t="n">
-        <v>103</v>
-      </c>
-      <c r="D34" s="175" t="n">
-        <v>12.359620745884</v>
-      </c>
-      <c r="E34" s="175" t="n">
-        <v>1267</v>
-      </c>
-      <c r="F34" s="175" t="n">
-        <v>99.6771848599898</v>
-      </c>
-      <c r="G34" s="175" t="n">
-        <v>123</v>
-      </c>
-      <c r="H34" s="175" t="n">
-        <v>27.9719177337897</v>
-      </c>
-      <c r="I34" s="175" t="n">
-        <v>1506</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A35" s="174" t="s">
-        <v>65</v>
-      </c>
-      <c r="B35" s="175" t="n">
-        <v>47</v>
-      </c>
-      <c r="C35" s="175" t="n">
-        <v>187</v>
-      </c>
-      <c r="D35" s="175" t="n">
-        <v>21.8848795377739</v>
-      </c>
-      <c r="E35" s="175" t="n">
-        <v>1255</v>
-      </c>
-      <c r="F35" s="175" t="n">
-        <v>97.6571358211128</v>
-      </c>
-      <c r="G35" s="175" t="n">
-        <v>94</v>
-      </c>
-      <c r="H35" s="175" t="n">
-        <v>22.0432117463723</v>
-      </c>
-      <c r="I35" s="175" t="n">
-        <v>1583</v>
-      </c>
-    </row>
-    <row r="36" s="176" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="174" t="s">
-        <v>66</v>
-      </c>
-      <c r="B36" s="175" t="n">
-        <v>0</v>
-      </c>
-      <c r="C36" s="175" t="n">
-        <v>212</v>
-      </c>
-      <c r="D36" s="175" t="n">
-        <v>10.849539406346</v>
-      </c>
-      <c r="E36" s="175" t="n">
-        <v>2952</v>
-      </c>
-      <c r="F36" s="175" t="n">
-        <v>96.1213533424089</v>
-      </c>
-      <c r="G36" s="175" t="n">
-        <v>199</v>
-      </c>
-      <c r="H36" s="175" t="n">
-        <v>19.4405635582106</v>
-      </c>
-      <c r="I36" s="175" t="n">
-        <v>3363</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A37" s="177" t="s">
-        <v>69</v>
-      </c>
-      <c r="B37" s="178" t="n">
-        <v>582</v>
-      </c>
-      <c r="C37" s="178" t="n">
-        <v>7042</v>
-      </c>
-      <c r="D37" s="178" t="n">
-        <v>13.5991691286644</v>
-      </c>
-      <c r="E37" s="178" t="n">
-        <v>77974</v>
-      </c>
-      <c r="F37" s="178" t="n">
-        <v>98.8519215508658</v>
-      </c>
-      <c r="G37" s="178" t="n">
-        <v>7017</v>
-      </c>
-      <c r="H37" s="178" t="n">
-        <v>26.6244066494087</v>
-      </c>
-      <c r="I37" s="178" t="n">
-        <v>92615</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="179" t="s">
-        <v>238</v>
-      </c>
-      <c r="B38" s="179"/>
-      <c r="C38" s="179"/>
-      <c r="D38" s="179"/>
-      <c r="E38" s="179"/>
-      <c r="F38" s="179"/>
-      <c r="G38" s="179"/>
-      <c r="H38" s="179"/>
-      <c r="I38" s="179"/>
+      <c r="B38" s="183"/>
+      <c r="C38" s="183"/>
+      <c r="D38" s="183"/>
+      <c r="E38" s="183"/>
+      <c r="F38" s="183"/>
+      <c r="G38" s="183"/>
+      <c r="H38" s="183"/>
+      <c r="I38" s="183"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -10015,7 +9949,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.14"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.57"/>
@@ -10024,113 +9958,113 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="184"/>
+      <c r="B18" s="185" t="s">
+        <v>238</v>
+      </c>
+      <c r="C18" s="185"/>
+      <c r="D18" s="185"/>
+    </row>
+    <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="186" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="180"/>
-      <c r="B18" s="181" t="s">
+      <c r="B19" s="186" t="s">
         <v>240</v>
       </c>
-      <c r="C18" s="181"/>
-      <c r="D18" s="181"/>
-    </row>
-    <row r="19" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="182" t="s">
+      <c r="C19" s="186" t="s">
         <v>241</v>
       </c>
-      <c r="B19" s="182" t="s">
+      <c r="D19" s="186" t="s">
         <v>242</v>
       </c>
-      <c r="C19" s="182" t="s">
-        <v>243</v>
-      </c>
-      <c r="D19" s="182" t="s">
-        <v>244</v>
-      </c>
-      <c r="E19" s="183"/>
+      <c r="E19" s="187"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="180" t="n">
+      <c r="A20" s="184" t="n">
         <v>2017</v>
       </c>
-      <c r="B20" s="162" t="n">
+      <c r="B20" s="166" t="n">
         <v>920.79</v>
       </c>
-      <c r="C20" s="162" t="n">
+      <c r="C20" s="166" t="n">
         <v>2315.66</v>
       </c>
-      <c r="D20" s="162" t="n">
+      <c r="D20" s="166" t="n">
         <v>3236.45</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="184" t="n">
+      <c r="A21" s="188" t="n">
         <v>2018</v>
       </c>
-      <c r="B21" s="164" t="n">
+      <c r="B21" s="168" t="n">
         <v>821.398</v>
       </c>
-      <c r="C21" s="164" t="n">
+      <c r="C21" s="168" t="n">
         <v>2302.21</v>
       </c>
-      <c r="D21" s="164" t="n">
+      <c r="D21" s="168" t="n">
         <v>3123.608</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="184" t="n">
+      <c r="A22" s="188" t="n">
         <v>2019</v>
       </c>
-      <c r="B22" s="164" t="n">
+      <c r="B22" s="168" t="n">
         <v>798.029</v>
       </c>
-      <c r="C22" s="164" t="n">
+      <c r="C22" s="168" t="n">
         <v>2534.86</v>
       </c>
-      <c r="D22" s="164" t="n">
+      <c r="D22" s="168" t="n">
         <v>3332.889</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="184" t="n">
+      <c r="A23" s="188" t="n">
         <v>2020</v>
       </c>
-      <c r="B23" s="164" t="n">
+      <c r="B23" s="168" t="n">
         <v>728.5</v>
       </c>
-      <c r="C23" s="164" t="n">
+      <c r="C23" s="168" t="n">
         <v>2720.99</v>
       </c>
-      <c r="D23" s="164" t="n">
+      <c r="D23" s="168" t="n">
         <v>3449.49</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="184" t="n">
+      <c r="A24" s="188" t="n">
         <v>2021</v>
       </c>
-      <c r="B24" s="164" t="n">
+      <c r="B24" s="168" t="n">
         <v>704.05</v>
       </c>
-      <c r="C24" s="164" t="n">
+      <c r="C24" s="168" t="n">
         <v>3149.53</v>
       </c>
-      <c r="D24" s="164" t="n">
+      <c r="D24" s="168" t="n">
         <v>3853.58</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="185" t="n">
+      <c r="A25" s="189" t="n">
         <v>2022</v>
       </c>
-      <c r="B25" s="166" t="n">
+      <c r="B25" s="170" t="n">
         <v>734.016</v>
       </c>
-      <c r="C25" s="166" t="n">
+      <c r="C25" s="170" t="n">
         <v>3426.82</v>
       </c>
-      <c r="D25" s="166" t="n">
+      <c r="D25" s="170" t="n">
         <v>4160.836</v>
       </c>
     </row>
@@ -10160,7 +10094,7 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.85"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="11.85"/>
@@ -10171,181 +10105,181 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="190" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="191"/>
+      <c r="B4" s="192" t="s">
+        <v>244</v>
+      </c>
+      <c r="C4" s="192" t="s">
         <v>245</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="186" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="63.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="187"/>
-      <c r="B4" s="188" t="s">
+      <c r="D4" s="192" t="s">
         <v>246</v>
       </c>
-      <c r="C4" s="188" t="s">
+      <c r="E4" s="192" t="s">
         <v>247</v>
       </c>
-      <c r="D4" s="188" t="s">
+      <c r="F4" s="192" t="s">
         <v>248</v>
       </c>
-      <c r="E4" s="188" t="s">
+    </row>
+    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="193" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B5" s="194" t="n">
+        <v>921</v>
+      </c>
+      <c r="C5" s="195" t="n">
+        <v>2316</v>
+      </c>
+      <c r="D5" s="195" t="n">
+        <v>3236</v>
+      </c>
+      <c r="E5" s="194" t="n">
+        <v>994</v>
+      </c>
+      <c r="F5" s="195" t="n">
+        <v>4230</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="196" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B6" s="197" t="n">
+        <v>821</v>
+      </c>
+      <c r="C6" s="198" t="n">
+        <v>2302</v>
+      </c>
+      <c r="D6" s="198" t="n">
+        <v>3124</v>
+      </c>
+      <c r="E6" s="198" t="n">
+        <v>1098</v>
+      </c>
+      <c r="F6" s="198" t="n">
+        <v>4222</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="196" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B7" s="197" t="n">
+        <v>798</v>
+      </c>
+      <c r="C7" s="198" t="n">
+        <v>2535</v>
+      </c>
+      <c r="D7" s="198" t="n">
+        <v>3333</v>
+      </c>
+      <c r="E7" s="198" t="n">
+        <v>1448</v>
+      </c>
+      <c r="F7" s="198" t="n">
+        <v>4781</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="196" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B8" s="197" t="n">
+        <v>729</v>
+      </c>
+      <c r="C8" s="198" t="n">
+        <v>2721</v>
+      </c>
+      <c r="D8" s="198" t="n">
+        <v>3449</v>
+      </c>
+      <c r="E8" s="198" t="n">
+        <v>1565</v>
+      </c>
+      <c r="F8" s="198" t="n">
+        <v>5015</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="196" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B9" s="197" t="n">
+        <v>704</v>
+      </c>
+      <c r="C9" s="198" t="n">
+        <v>3150</v>
+      </c>
+      <c r="D9" s="198" t="n">
+        <v>3854</v>
+      </c>
+      <c r="E9" s="198" t="n">
+        <v>1533</v>
+      </c>
+      <c r="F9" s="198" t="n">
+        <v>5387</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="199" t="n">
+        <v>2022</v>
+      </c>
+      <c r="B10" s="200" t="n">
+        <v>734</v>
+      </c>
+      <c r="C10" s="201" t="n">
+        <v>3427</v>
+      </c>
+      <c r="D10" s="201" t="n">
+        <v>4161</v>
+      </c>
+      <c r="E10" s="201" t="n">
+        <v>1515</v>
+      </c>
+      <c r="F10" s="201" t="n">
+        <v>5676</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="202" t="s">
         <v>249</v>
       </c>
-      <c r="F4" s="188" t="s">
+      <c r="B11" s="202"/>
+      <c r="C11" s="202"/>
+      <c r="D11" s="202"/>
+      <c r="E11" s="202"/>
+      <c r="F11" s="202"/>
+    </row>
+    <row r="12" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="202" t="s">
         <v>250</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="189" t="n">
-        <v>2017</v>
-      </c>
-      <c r="B5" s="190" t="n">
-        <v>921</v>
-      </c>
-      <c r="C5" s="191" t="n">
-        <v>2316</v>
-      </c>
-      <c r="D5" s="191" t="n">
-        <v>3236</v>
-      </c>
-      <c r="E5" s="190" t="n">
-        <v>994</v>
-      </c>
-      <c r="F5" s="191" t="n">
-        <v>4230</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="192" t="n">
-        <v>2018</v>
-      </c>
-      <c r="B6" s="193" t="n">
-        <v>821</v>
-      </c>
-      <c r="C6" s="194" t="n">
-        <v>2302</v>
-      </c>
-      <c r="D6" s="194" t="n">
-        <v>3124</v>
-      </c>
-      <c r="E6" s="194" t="n">
-        <v>1098</v>
-      </c>
-      <c r="F6" s="194" t="n">
-        <v>4222</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="192" t="n">
-        <v>2019</v>
-      </c>
-      <c r="B7" s="193" t="n">
-        <v>798</v>
-      </c>
-      <c r="C7" s="194" t="n">
-        <v>2535</v>
-      </c>
-      <c r="D7" s="194" t="n">
-        <v>3333</v>
-      </c>
-      <c r="E7" s="194" t="n">
-        <v>1448</v>
-      </c>
-      <c r="F7" s="194" t="n">
-        <v>4781</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="192" t="n">
-        <v>2020</v>
-      </c>
-      <c r="B8" s="193" t="n">
-        <v>729</v>
-      </c>
-      <c r="C8" s="194" t="n">
-        <v>2721</v>
-      </c>
-      <c r="D8" s="194" t="n">
-        <v>3449</v>
-      </c>
-      <c r="E8" s="194" t="n">
-        <v>1565</v>
-      </c>
-      <c r="F8" s="194" t="n">
-        <v>5015</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="192" t="n">
-        <v>2021</v>
-      </c>
-      <c r="B9" s="193" t="n">
-        <v>704</v>
-      </c>
-      <c r="C9" s="194" t="n">
-        <v>3150</v>
-      </c>
-      <c r="D9" s="194" t="n">
-        <v>3854</v>
-      </c>
-      <c r="E9" s="194" t="n">
-        <v>1533</v>
-      </c>
-      <c r="F9" s="194" t="n">
-        <v>5387</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="195" t="n">
-        <v>2022</v>
-      </c>
-      <c r="B10" s="196" t="n">
-        <v>734</v>
-      </c>
-      <c r="C10" s="197" t="n">
-        <v>3427</v>
-      </c>
-      <c r="D10" s="197" t="n">
-        <v>4161</v>
-      </c>
-      <c r="E10" s="197" t="n">
-        <v>1515</v>
-      </c>
-      <c r="F10" s="197" t="n">
-        <v>5676</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="198" t="s">
+      <c r="B12" s="202"/>
+      <c r="C12" s="202"/>
+      <c r="D12" s="202"/>
+      <c r="E12" s="202"/>
+      <c r="F12" s="202"/>
+    </row>
+    <row r="13" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="202" t="s">
         <v>251</v>
       </c>
-      <c r="B11" s="198"/>
-      <c r="C11" s="198"/>
-      <c r="D11" s="198"/>
-      <c r="E11" s="198"/>
-      <c r="F11" s="198"/>
-    </row>
-    <row r="12" customFormat="false" ht="87.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A12" s="198" t="s">
-        <v>252</v>
-      </c>
-      <c r="B12" s="198"/>
-      <c r="C12" s="198"/>
-      <c r="D12" s="198"/>
-      <c r="E12" s="198"/>
-      <c r="F12" s="198"/>
-    </row>
-    <row r="13" customFormat="false" ht="37.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="198" t="s">
-        <v>253</v>
-      </c>
-      <c r="B13" s="198"/>
-      <c r="C13" s="198"/>
-      <c r="D13" s="198"/>
-      <c r="E13" s="198"/>
-      <c r="F13" s="198"/>
+      <c r="B13" s="202"/>
+      <c r="C13" s="202"/>
+      <c r="D13" s="202"/>
+      <c r="E13" s="202"/>
+      <c r="F13" s="202"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -10370,11 +10304,11 @@
   </sheetPr>
   <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10.71"/>
@@ -10385,711 +10319,711 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="108" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="203" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="204"/>
+      <c r="B4" s="205"/>
+      <c r="C4" s="205"/>
+      <c r="D4" s="206" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="199" t="s">
+      <c r="E4" s="207" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="207"/>
+    </row>
+    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="208"/>
+      <c r="B5" s="209" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="200"/>
-      <c r="B4" s="201"/>
-      <c r="C4" s="201"/>
-      <c r="D4" s="202" t="s">
+      <c r="C5" s="210" t="s">
         <v>256</v>
       </c>
-      <c r="E4" s="203" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="203"/>
-    </row>
-    <row r="5" customFormat="false" ht="26.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="204"/>
-      <c r="B5" s="205" t="s">
+      <c r="D5" s="206"/>
+      <c r="E5" s="210" t="s">
         <v>257</v>
       </c>
-      <c r="C5" s="206" t="s">
+      <c r="F5" s="211" t="s">
         <v>258</v>
       </c>
-      <c r="D5" s="202"/>
-      <c r="E5" s="206" t="s">
+    </row>
+    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="178" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6" s="179" t="n">
+        <v>21.26</v>
+      </c>
+      <c r="C6" s="179" t="n">
+        <v>92.2</v>
+      </c>
+      <c r="D6" s="212" t="n">
+        <v>69.78</v>
+      </c>
+      <c r="E6" s="213" t="n">
+        <v>183.25</v>
+      </c>
+      <c r="F6" s="214" t="n">
+        <v>-6.96552774534193</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="178" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="179" t="n">
+        <v>23.76</v>
+      </c>
+      <c r="C7" s="179" t="n">
+        <v>117.65</v>
+      </c>
+      <c r="D7" s="212" t="n">
+        <v>80.28</v>
+      </c>
+      <c r="E7" s="213" t="n">
+        <v>221.69</v>
+      </c>
+      <c r="F7" s="214" t="n">
+        <v>7.7525031593273</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="178" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8" s="179" t="n">
+        <v>11.47</v>
+      </c>
+      <c r="C8" s="179" t="n">
+        <v>60.17</v>
+      </c>
+      <c r="D8" s="212" t="n">
+        <v>39.6</v>
+      </c>
+      <c r="E8" s="213" t="n">
+        <v>111.24</v>
+      </c>
+      <c r="F8" s="214" t="n">
+        <v>-0.970355203418489</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="178" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="179" t="n">
+        <v>19.55</v>
+      </c>
+      <c r="C9" s="179" t="n">
+        <v>44.18</v>
+      </c>
+      <c r="D9" s="212" t="n">
+        <v>24.16</v>
+      </c>
+      <c r="E9" s="213" t="n">
+        <v>87.89</v>
+      </c>
+      <c r="F9" s="214" t="n">
+        <v>41.0528005135612</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="179" t="n">
+        <v>53.56</v>
+      </c>
+      <c r="C10" s="179" t="n">
+        <v>354.5</v>
+      </c>
+      <c r="D10" s="212" t="n">
+        <v>132.52</v>
+      </c>
+      <c r="E10" s="213" t="n">
+        <v>540.58</v>
+      </c>
+      <c r="F10" s="214" t="n">
+        <v>19.3491411666004</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="178" t="s">
+        <v>40</v>
+      </c>
+      <c r="B11" s="179" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="C11" s="179" t="n">
+        <v>26.71</v>
+      </c>
+      <c r="D11" s="212" t="n">
+        <v>18.2</v>
+      </c>
+      <c r="E11" s="213" t="n">
+        <v>48.69</v>
+      </c>
+      <c r="F11" s="214" t="n">
+        <v>-11.3437727603787</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="178" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="179" t="n">
+        <v>18.89</v>
+      </c>
+      <c r="C12" s="179" t="n">
+        <v>105.22</v>
+      </c>
+      <c r="D12" s="212" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="E12" s="213" t="n">
+        <v>143.95</v>
+      </c>
+      <c r="F12" s="214" t="n">
+        <v>3.84504400519404</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="178" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="179" t="n">
+        <v>42.29</v>
+      </c>
+      <c r="C13" s="179" t="n">
+        <v>66.84</v>
+      </c>
+      <c r="D13" s="212" t="n">
+        <v>53</v>
+      </c>
+      <c r="E13" s="213" t="n">
+        <v>162.13</v>
+      </c>
+      <c r="F13" s="214" t="n">
+        <v>0.222538171478033</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="178" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="179" t="n">
+        <v>12.73</v>
+      </c>
+      <c r="C14" s="179" t="n">
+        <v>156.34</v>
+      </c>
+      <c r="D14" s="212" t="n">
+        <v>62.39</v>
+      </c>
+      <c r="E14" s="213" t="n">
+        <v>231.46</v>
+      </c>
+      <c r="F14" s="214" t="n">
+        <v>13.5164296223639</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="178" t="s">
+        <v>44</v>
+      </c>
+      <c r="B15" s="179" t="n">
+        <v>33.13</v>
+      </c>
+      <c r="C15" s="179" t="n">
+        <v>107.81</v>
+      </c>
+      <c r="D15" s="212" t="n">
+        <v>39.58</v>
+      </c>
+      <c r="E15" s="213" t="n">
+        <v>180.52</v>
+      </c>
+      <c r="F15" s="214" t="n">
+        <v>3.14839152048454</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="178" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" s="179" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="C16" s="179" t="n">
+        <v>41.34</v>
+      </c>
+      <c r="D16" s="212" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="E16" s="213" t="n">
+        <v>67.81</v>
+      </c>
+      <c r="F16" s="214" t="n">
+        <v>4.09886398526252</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="178" t="s">
+        <v>46</v>
+      </c>
+      <c r="B17" s="179" t="n">
+        <v>37.6</v>
+      </c>
+      <c r="C17" s="179" t="n">
+        <v>71.11</v>
+      </c>
+      <c r="D17" s="212" t="n">
+        <v>30.69</v>
+      </c>
+      <c r="E17" s="213" t="n">
+        <v>139.4</v>
+      </c>
+      <c r="F17" s="214" t="n">
+        <v>-1.88626126126125</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="178" t="s">
+        <v>47</v>
+      </c>
+      <c r="B18" s="179" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="C18" s="179" t="n">
+        <v>72.76</v>
+      </c>
+      <c r="D18" s="212" t="n">
+        <v>47.61</v>
+      </c>
+      <c r="E18" s="213" t="n">
+        <v>124.17</v>
+      </c>
+      <c r="F18" s="214" t="n">
+        <v>7.13546160483175</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="178" t="s">
+        <v>48</v>
+      </c>
+      <c r="B19" s="179" t="n">
+        <v>68.24</v>
+      </c>
+      <c r="C19" s="179" t="n">
+        <v>93</v>
+      </c>
+      <c r="D19" s="212" t="n">
+        <v>76.39</v>
+      </c>
+      <c r="E19" s="213" t="n">
+        <v>237.63</v>
+      </c>
+      <c r="F19" s="214" t="n">
+        <v>3.90013554282716</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="178" t="s">
+        <v>49</v>
+      </c>
+      <c r="B20" s="179" t="n">
+        <v>53.6</v>
+      </c>
+      <c r="C20" s="179" t="n">
+        <v>644.28</v>
+      </c>
+      <c r="D20" s="212" t="n">
+        <v>208.93</v>
+      </c>
+      <c r="E20" s="213" t="n">
+        <v>906.81</v>
+      </c>
+      <c r="F20" s="214" t="n">
+        <v>8.20863463879143</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="178" t="s">
+        <v>50</v>
+      </c>
+      <c r="B21" s="179" t="n">
+        <v>33.94</v>
+      </c>
+      <c r="C21" s="179" t="n">
+        <v>51.33</v>
+      </c>
+      <c r="D21" s="212" t="n">
+        <v>16.54</v>
+      </c>
+      <c r="E21" s="213" t="n">
+        <v>101.81</v>
+      </c>
+      <c r="F21" s="214" t="n">
+        <v>-2.25614439324117</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="178" t="s">
+        <v>51</v>
+      </c>
+      <c r="B22" s="179" t="n">
+        <v>12.4</v>
+      </c>
+      <c r="C22" s="179" t="n">
+        <v>63.75</v>
+      </c>
+      <c r="D22" s="212" t="n">
+        <v>38.24</v>
+      </c>
+      <c r="E22" s="213" t="n">
+        <v>114.39</v>
+      </c>
+      <c r="F22" s="214" t="n">
+        <v>10.7893462469734</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="178" t="s">
+        <v>52</v>
+      </c>
+      <c r="B23" s="179" t="n">
+        <v>14.3</v>
+      </c>
+      <c r="C23" s="179" t="n">
+        <v>53.09</v>
+      </c>
+      <c r="D23" s="212" t="n">
+        <v>21.98</v>
+      </c>
+      <c r="E23" s="213" t="n">
+        <v>89.37</v>
+      </c>
+      <c r="F23" s="214" t="n">
+        <v>-2.86925334202803</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="178" t="s">
+        <v>53</v>
+      </c>
+      <c r="B24" s="179" t="n">
+        <v>16.44</v>
+      </c>
+      <c r="C24" s="179" t="n">
+        <v>39.9</v>
+      </c>
+      <c r="D24" s="212" t="n">
+        <v>25.75</v>
+      </c>
+      <c r="E24" s="213" t="n">
+        <v>82.09</v>
+      </c>
+      <c r="F24" s="214" t="n">
+        <v>5.35164271047228</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="178" t="s">
+        <v>54</v>
+      </c>
+      <c r="B25" s="179" t="n">
+        <v>5.27</v>
+      </c>
+      <c r="C25" s="179" t="n">
+        <v>13.76</v>
+      </c>
+      <c r="D25" s="212" t="n">
+        <v>5</v>
+      </c>
+      <c r="E25" s="213" t="n">
+        <v>24.03</v>
+      </c>
+      <c r="F25" s="214" t="n">
+        <v>7.51677852348993</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="178" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" s="179" t="n">
+        <v>12.55</v>
+      </c>
+      <c r="C26" s="179" t="n">
+        <v>119.15</v>
+      </c>
+      <c r="D26" s="212" t="n">
+        <v>31.09</v>
+      </c>
+      <c r="E26" s="213" t="n">
+        <v>162.79</v>
+      </c>
+      <c r="F26" s="214" t="n">
+        <v>20.0427697072487</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="178" t="s">
+        <v>56</v>
+      </c>
+      <c r="B27" s="179" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C27" s="179" t="n">
+        <v>217.26</v>
+      </c>
+      <c r="D27" s="212" t="n">
+        <v>48.11</v>
+      </c>
+      <c r="E27" s="213" t="n">
+        <v>286.27</v>
+      </c>
+      <c r="F27" s="214" t="n">
+        <v>-3.16939521039102</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="178" t="s">
+        <v>57</v>
+      </c>
+      <c r="B28" s="179" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="C28" s="179" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="D28" s="212" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="E28" s="213" t="n">
+        <v>25.07</v>
+      </c>
+      <c r="F28" s="214" t="n">
+        <v>-6.10486891385769</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="178" t="s">
+        <v>58</v>
+      </c>
+      <c r="B29" s="179" t="n">
+        <v>44.84</v>
+      </c>
+      <c r="C29" s="179" t="n">
+        <v>82.54</v>
+      </c>
+      <c r="D29" s="212" t="n">
+        <v>64.23</v>
+      </c>
+      <c r="E29" s="213" t="n">
+        <v>191.61</v>
+      </c>
+      <c r="F29" s="214" t="n">
+        <v>-0.97162644064291</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="178" t="s">
+        <v>59</v>
+      </c>
+      <c r="B30" s="179" t="n">
+        <v>15.89</v>
+      </c>
+      <c r="C30" s="179" t="n">
+        <v>164.39</v>
+      </c>
+      <c r="D30" s="212" t="n">
+        <v>59.34</v>
+      </c>
+      <c r="E30" s="213" t="n">
+        <v>239.62</v>
+      </c>
+      <c r="F30" s="214" t="n">
+        <v>4.38229656734622</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A31" s="178" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="179" t="n">
+        <v>22.4</v>
+      </c>
+      <c r="C31" s="179" t="n">
+        <v>35.88</v>
+      </c>
+      <c r="D31" s="212" t="n">
+        <v>21.6</v>
+      </c>
+      <c r="E31" s="213" t="n">
+        <v>79.88</v>
+      </c>
+      <c r="F31" s="214" t="n">
+        <v>-2.81056089548607</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="178" t="s">
+        <v>61</v>
+      </c>
+      <c r="B32" s="179" t="n">
+        <v>10.24</v>
+      </c>
+      <c r="C32" s="179" t="n">
+        <v>4.78</v>
+      </c>
+      <c r="D32" s="212" t="n">
+        <v>11.53</v>
+      </c>
+      <c r="E32" s="213" t="n">
+        <v>26.55</v>
+      </c>
+      <c r="F32" s="214" t="n">
+        <v>17.4778761061947</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="178" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" s="179" t="n">
+        <v>34.8</v>
+      </c>
+      <c r="C33" s="179" t="n">
+        <v>72.6</v>
+      </c>
+      <c r="D33" s="212" t="n">
+        <v>51.2</v>
+      </c>
+      <c r="E33" s="213" t="n">
+        <v>158.6</v>
+      </c>
+      <c r="F33" s="214" t="n">
+        <v>2.61387163561076</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="178" t="s">
+        <v>63</v>
+      </c>
+      <c r="B34" s="179" t="n">
+        <v>29.39</v>
+      </c>
+      <c r="C34" s="179" t="n">
+        <v>207.18</v>
+      </c>
+      <c r="D34" s="212" t="n">
+        <v>78.62</v>
+      </c>
+      <c r="E34" s="213" t="n">
+        <v>315.19</v>
+      </c>
+      <c r="F34" s="214" t="n">
+        <v>2.13545042125728</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="178" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" s="179" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="C35" s="179" t="n">
+        <v>93.46</v>
+      </c>
+      <c r="D35" s="212" t="n">
+        <v>31.4</v>
+      </c>
+      <c r="E35" s="213" t="n">
+        <v>129.93</v>
+      </c>
+      <c r="F35" s="214" t="n">
+        <v>3.93568514518837</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A36" s="178" t="s">
+        <v>65</v>
+      </c>
+      <c r="B36" s="179" t="n">
+        <v>24.65</v>
+      </c>
+      <c r="C36" s="179" t="n">
+        <v>60.49</v>
+      </c>
+      <c r="D36" s="212" t="n">
+        <v>46.74</v>
+      </c>
+      <c r="E36" s="213" t="n">
+        <v>131.88</v>
+      </c>
+      <c r="F36" s="214" t="n">
+        <v>14.8480362274667</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="178" t="s">
+        <v>66</v>
+      </c>
+      <c r="B37" s="179" t="n">
+        <v>17.49</v>
+      </c>
+      <c r="C37" s="179" t="n">
+        <v>79.64</v>
+      </c>
+      <c r="D37" s="212" t="n">
+        <v>32.68</v>
+      </c>
+      <c r="E37" s="213" t="n">
+        <v>129.81</v>
+      </c>
+      <c r="F37" s="214" t="n">
+        <v>-9.74134334584897</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A38" s="181" t="s">
+        <v>69</v>
+      </c>
+      <c r="B38" s="182" t="n">
+        <v>734.02</v>
+      </c>
+      <c r="C38" s="182" t="n">
+        <v>3426.81</v>
+      </c>
+      <c r="D38" s="215" t="n">
+        <v>1515.27</v>
+      </c>
+      <c r="E38" s="216" t="n">
+        <v>5676.11</v>
+      </c>
+      <c r="F38" s="217" t="n">
+        <v>5.37345962061836</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A39" s="218" t="s">
         <v>259</v>
       </c>
-      <c r="F5" s="207" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="174" t="s">
-        <v>34</v>
-      </c>
-      <c r="B6" s="175" t="n">
-        <v>21.26</v>
-      </c>
-      <c r="C6" s="175" t="n">
-        <v>92.2</v>
-      </c>
-      <c r="D6" s="208" t="n">
-        <v>69.78</v>
-      </c>
-      <c r="E6" s="209" t="n">
-        <v>183.25</v>
-      </c>
-      <c r="F6" s="210" t="n">
-        <v>-6.96552774534193</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="174" t="s">
-        <v>35</v>
-      </c>
-      <c r="B7" s="175" t="n">
-        <v>23.76</v>
-      </c>
-      <c r="C7" s="175" t="n">
-        <v>117.65</v>
-      </c>
-      <c r="D7" s="208" t="n">
-        <v>80.28</v>
-      </c>
-      <c r="E7" s="209" t="n">
-        <v>221.69</v>
-      </c>
-      <c r="F7" s="210" t="n">
-        <v>7.7525031593273</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="174" t="s">
-        <v>36</v>
-      </c>
-      <c r="B8" s="175" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="C8" s="175" t="n">
-        <v>60.17</v>
-      </c>
-      <c r="D8" s="208" t="n">
-        <v>39.6</v>
-      </c>
-      <c r="E8" s="209" t="n">
-        <v>111.24</v>
-      </c>
-      <c r="F8" s="210" t="n">
-        <v>-0.970355203418489</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="174" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="175" t="n">
-        <v>19.55</v>
-      </c>
-      <c r="C9" s="175" t="n">
-        <v>44.18</v>
-      </c>
-      <c r="D9" s="208" t="n">
-        <v>24.16</v>
-      </c>
-      <c r="E9" s="209" t="n">
-        <v>87.89</v>
-      </c>
-      <c r="F9" s="210" t="n">
-        <v>41.0528005135612</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="174" t="s">
-        <v>39</v>
-      </c>
-      <c r="B10" s="175" t="n">
-        <v>53.56</v>
-      </c>
-      <c r="C10" s="175" t="n">
-        <v>354.5</v>
-      </c>
-      <c r="D10" s="208" t="n">
-        <v>132.52</v>
-      </c>
-      <c r="E10" s="209" t="n">
-        <v>540.58</v>
-      </c>
-      <c r="F10" s="210" t="n">
-        <v>19.3491411666004</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="174" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="175" t="n">
-        <v>3.78</v>
-      </c>
-      <c r="C11" s="175" t="n">
-        <v>26.71</v>
-      </c>
-      <c r="D11" s="208" t="n">
-        <v>18.2</v>
-      </c>
-      <c r="E11" s="209" t="n">
-        <v>48.69</v>
-      </c>
-      <c r="F11" s="210" t="n">
-        <v>-11.3437727603787</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="174" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="175" t="n">
-        <v>18.89</v>
-      </c>
-      <c r="C12" s="175" t="n">
-        <v>105.22</v>
-      </c>
-      <c r="D12" s="208" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="E12" s="209" t="n">
-        <v>143.95</v>
-      </c>
-      <c r="F12" s="210" t="n">
-        <v>3.84504400519404</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="174" t="s">
-        <v>42</v>
-      </c>
-      <c r="B13" s="175" t="n">
-        <v>42.29</v>
-      </c>
-      <c r="C13" s="175" t="n">
-        <v>66.84</v>
-      </c>
-      <c r="D13" s="208" t="n">
-        <v>53</v>
-      </c>
-      <c r="E13" s="209" t="n">
-        <v>162.13</v>
-      </c>
-      <c r="F13" s="210" t="n">
-        <v>0.222538171478033</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="174" t="s">
-        <v>43</v>
-      </c>
-      <c r="B14" s="175" t="n">
-        <v>12.73</v>
-      </c>
-      <c r="C14" s="175" t="n">
-        <v>156.34</v>
-      </c>
-      <c r="D14" s="208" t="n">
-        <v>62.39</v>
-      </c>
-      <c r="E14" s="209" t="n">
-        <v>231.46</v>
-      </c>
-      <c r="F14" s="210" t="n">
-        <v>13.5164296223639</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="174" t="s">
-        <v>44</v>
-      </c>
-      <c r="B15" s="175" t="n">
-        <v>33.13</v>
-      </c>
-      <c r="C15" s="175" t="n">
-        <v>107.81</v>
-      </c>
-      <c r="D15" s="208" t="n">
-        <v>39.58</v>
-      </c>
-      <c r="E15" s="209" t="n">
-        <v>180.52</v>
-      </c>
-      <c r="F15" s="210" t="n">
-        <v>3.14839152048454</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="174" t="s">
-        <v>45</v>
-      </c>
-      <c r="B16" s="175" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="C16" s="175" t="n">
-        <v>41.34</v>
-      </c>
-      <c r="D16" s="208" t="n">
-        <v>21.15</v>
-      </c>
-      <c r="E16" s="209" t="n">
-        <v>67.81</v>
-      </c>
-      <c r="F16" s="210" t="n">
-        <v>4.09886398526252</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="174" t="s">
-        <v>46</v>
-      </c>
-      <c r="B17" s="175" t="n">
-        <v>37.6</v>
-      </c>
-      <c r="C17" s="175" t="n">
-        <v>71.11</v>
-      </c>
-      <c r="D17" s="208" t="n">
-        <v>30.69</v>
-      </c>
-      <c r="E17" s="209" t="n">
-        <v>139.4</v>
-      </c>
-      <c r="F17" s="210" t="n">
-        <v>-1.88626126126125</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="174" t="s">
-        <v>47</v>
-      </c>
-      <c r="B18" s="175" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="C18" s="175" t="n">
-        <v>72.76</v>
-      </c>
-      <c r="D18" s="208" t="n">
-        <v>47.61</v>
-      </c>
-      <c r="E18" s="209" t="n">
-        <v>124.17</v>
-      </c>
-      <c r="F18" s="210" t="n">
-        <v>7.13546160483175</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="174" t="s">
-        <v>48</v>
-      </c>
-      <c r="B19" s="175" t="n">
-        <v>68.24</v>
-      </c>
-      <c r="C19" s="175" t="n">
-        <v>93</v>
-      </c>
-      <c r="D19" s="208" t="n">
-        <v>76.39</v>
-      </c>
-      <c r="E19" s="209" t="n">
-        <v>237.63</v>
-      </c>
-      <c r="F19" s="210" t="n">
-        <v>3.90013554282716</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="174" t="s">
-        <v>49</v>
-      </c>
-      <c r="B20" s="175" t="n">
-        <v>53.6</v>
-      </c>
-      <c r="C20" s="175" t="n">
-        <v>644.28</v>
-      </c>
-      <c r="D20" s="208" t="n">
-        <v>208.93</v>
-      </c>
-      <c r="E20" s="209" t="n">
-        <v>906.81</v>
-      </c>
-      <c r="F20" s="210" t="n">
-        <v>8.20863463879143</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="174" t="s">
-        <v>50</v>
-      </c>
-      <c r="B21" s="175" t="n">
-        <v>33.94</v>
-      </c>
-      <c r="C21" s="175" t="n">
-        <v>51.33</v>
-      </c>
-      <c r="D21" s="208" t="n">
-        <v>16.54</v>
-      </c>
-      <c r="E21" s="209" t="n">
-        <v>101.81</v>
-      </c>
-      <c r="F21" s="210" t="n">
-        <v>-2.25614439324117</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="174" t="s">
-        <v>51</v>
-      </c>
-      <c r="B22" s="175" t="n">
-        <v>12.4</v>
-      </c>
-      <c r="C22" s="175" t="n">
-        <v>63.75</v>
-      </c>
-      <c r="D22" s="208" t="n">
-        <v>38.24</v>
-      </c>
-      <c r="E22" s="209" t="n">
-        <v>114.39</v>
-      </c>
-      <c r="F22" s="210" t="n">
-        <v>10.7893462469734</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="174" t="s">
-        <v>52</v>
-      </c>
-      <c r="B23" s="175" t="n">
-        <v>14.3</v>
-      </c>
-      <c r="C23" s="175" t="n">
-        <v>53.09</v>
-      </c>
-      <c r="D23" s="208" t="n">
-        <v>21.98</v>
-      </c>
-      <c r="E23" s="209" t="n">
-        <v>89.37</v>
-      </c>
-      <c r="F23" s="210" t="n">
-        <v>-2.86925334202803</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="174" t="s">
-        <v>53</v>
-      </c>
-      <c r="B24" s="175" t="n">
-        <v>16.44</v>
-      </c>
-      <c r="C24" s="175" t="n">
-        <v>39.9</v>
-      </c>
-      <c r="D24" s="208" t="n">
-        <v>25.75</v>
-      </c>
-      <c r="E24" s="209" t="n">
-        <v>82.09</v>
-      </c>
-      <c r="F24" s="210" t="n">
-        <v>5.35164271047228</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="174" t="s">
-        <v>54</v>
-      </c>
-      <c r="B25" s="175" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="C25" s="175" t="n">
-        <v>13.76</v>
-      </c>
-      <c r="D25" s="208" t="n">
-        <v>5</v>
-      </c>
-      <c r="E25" s="209" t="n">
-        <v>24.03</v>
-      </c>
-      <c r="F25" s="210" t="n">
-        <v>7.51677852348993</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="174" t="s">
-        <v>55</v>
-      </c>
-      <c r="B26" s="175" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="C26" s="175" t="n">
-        <v>119.15</v>
-      </c>
-      <c r="D26" s="208" t="n">
-        <v>31.09</v>
-      </c>
-      <c r="E26" s="209" t="n">
-        <v>162.79</v>
-      </c>
-      <c r="F26" s="210" t="n">
-        <v>20.0427697072487</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="174" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="175" t="n">
-        <v>20.9</v>
-      </c>
-      <c r="C27" s="175" t="n">
-        <v>217.26</v>
-      </c>
-      <c r="D27" s="208" t="n">
-        <v>48.11</v>
-      </c>
-      <c r="E27" s="209" t="n">
-        <v>286.27</v>
-      </c>
-      <c r="F27" s="210" t="n">
-        <v>-3.16939521039102</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="174" t="s">
-        <v>57</v>
-      </c>
-      <c r="B28" s="175" t="n">
-        <v>4.47</v>
-      </c>
-      <c r="C28" s="175" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="D28" s="208" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E28" s="209" t="n">
-        <v>25.07</v>
-      </c>
-      <c r="F28" s="210" t="n">
-        <v>-6.10486891385769</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="174" t="s">
-        <v>58</v>
-      </c>
-      <c r="B29" s="175" t="n">
-        <v>44.84</v>
-      </c>
-      <c r="C29" s="175" t="n">
-        <v>82.54</v>
-      </c>
-      <c r="D29" s="208" t="n">
-        <v>64.23</v>
-      </c>
-      <c r="E29" s="209" t="n">
-        <v>191.61</v>
-      </c>
-      <c r="F29" s="210" t="n">
-        <v>-0.97162644064291</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="174" t="s">
-        <v>59</v>
-      </c>
-      <c r="B30" s="175" t="n">
-        <v>15.89</v>
-      </c>
-      <c r="C30" s="175" t="n">
-        <v>164.39</v>
-      </c>
-      <c r="D30" s="208" t="n">
-        <v>59.34</v>
-      </c>
-      <c r="E30" s="209" t="n">
-        <v>239.62</v>
-      </c>
-      <c r="F30" s="210" t="n">
-        <v>4.38229656734622</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A31" s="174" t="s">
-        <v>60</v>
-      </c>
-      <c r="B31" s="175" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="C31" s="175" t="n">
-        <v>35.88</v>
-      </c>
-      <c r="D31" s="208" t="n">
-        <v>21.6</v>
-      </c>
-      <c r="E31" s="209" t="n">
-        <v>79.88</v>
-      </c>
-      <c r="F31" s="210" t="n">
-        <v>-2.81056089548607</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="174" t="s">
-        <v>61</v>
-      </c>
-      <c r="B32" s="175" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="C32" s="175" t="n">
-        <v>4.78</v>
-      </c>
-      <c r="D32" s="208" t="n">
-        <v>11.53</v>
-      </c>
-      <c r="E32" s="209" t="n">
-        <v>26.55</v>
-      </c>
-      <c r="F32" s="210" t="n">
-        <v>17.4778761061947</v>
-      </c>
-    </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="174" t="s">
-        <v>62</v>
-      </c>
-      <c r="B33" s="175" t="n">
-        <v>34.8</v>
-      </c>
-      <c r="C33" s="175" t="n">
-        <v>72.6</v>
-      </c>
-      <c r="D33" s="208" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="E33" s="209" t="n">
-        <v>158.6</v>
-      </c>
-      <c r="F33" s="210" t="n">
-        <v>2.61387163561076</v>
-      </c>
-    </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="174" t="s">
-        <v>63</v>
-      </c>
-      <c r="B34" s="175" t="n">
-        <v>29.39</v>
-      </c>
-      <c r="C34" s="175" t="n">
-        <v>207.18</v>
-      </c>
-      <c r="D34" s="208" t="n">
-        <v>78.62</v>
-      </c>
-      <c r="E34" s="209" t="n">
-        <v>315.19</v>
-      </c>
-      <c r="F34" s="210" t="n">
-        <v>2.13545042125728</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="174" t="s">
-        <v>64</v>
-      </c>
-      <c r="B35" s="175" t="n">
-        <v>5.07</v>
-      </c>
-      <c r="C35" s="175" t="n">
-        <v>93.46</v>
-      </c>
-      <c r="D35" s="208" t="n">
-        <v>31.4</v>
-      </c>
-      <c r="E35" s="209" t="n">
-        <v>129.93</v>
-      </c>
-      <c r="F35" s="210" t="n">
-        <v>3.93568514518837</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A36" s="174" t="s">
-        <v>65</v>
-      </c>
-      <c r="B36" s="175" t="n">
-        <v>24.65</v>
-      </c>
-      <c r="C36" s="175" t="n">
-        <v>60.49</v>
-      </c>
-      <c r="D36" s="208" t="n">
-        <v>46.74</v>
-      </c>
-      <c r="E36" s="209" t="n">
-        <v>131.88</v>
-      </c>
-      <c r="F36" s="210" t="n">
-        <v>14.8480362274667</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="174" t="s">
-        <v>66</v>
-      </c>
-      <c r="B37" s="175" t="n">
-        <v>17.49</v>
-      </c>
-      <c r="C37" s="175" t="n">
-        <v>79.64</v>
-      </c>
-      <c r="D37" s="208" t="n">
-        <v>32.68</v>
-      </c>
-      <c r="E37" s="209" t="n">
-        <v>129.81</v>
-      </c>
-      <c r="F37" s="210" t="n">
-        <v>-9.74134334584897</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="24.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A38" s="177" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="178" t="n">
-        <v>734.02</v>
-      </c>
-      <c r="C38" s="178" t="n">
-        <v>3426.81</v>
-      </c>
-      <c r="D38" s="211" t="n">
-        <v>1515.27</v>
-      </c>
-      <c r="E38" s="212" t="n">
-        <v>5676.11</v>
-      </c>
-      <c r="F38" s="213" t="n">
-        <v>5.37345962061836</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A39" s="214" t="s">
-        <v>261</v>
-      </c>
-      <c r="B39" s="214"/>
-      <c r="C39" s="214"/>
-      <c r="D39" s="214"/>
-      <c r="E39" s="214"/>
-      <c r="F39" s="214"/>
+      <c r="B39" s="218"/>
+      <c r="C39" s="218"/>
+      <c r="D39" s="218"/>
+      <c r="E39" s="218"/>
+      <c r="F39" s="218"/>
     </row>
   </sheetData>
   <mergeCells count="3">
